--- a/kor2eng.xlsx
+++ b/kor2eng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SeungwooKang_1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SeungwooKang_1/Documents/GitHub/south-korea-election/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50BCC6D-10DF-A040-B603-9520D09379E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338760DC-5EE9-494C-8281-D35994355423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19080" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{485E5265-5BD5-BA4D-8DB3-B0C0895E5122}"/>
+    <workbookView xWindow="-19080" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{485E5265-5BD5-BA4D-8DB3-B0C0895E5122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="503">
   <si>
     <t>종로구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1769,6 +1769,46 @@
   </si>
   <si>
     <t>Seogwipo-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청원군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheongwon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천시원미구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천시소사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천시오정구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonmi-gu, Bucheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sosa-gu, Bucheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ojeong-gu, Bucheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeoju-gun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2133,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7418C56A-0A02-6E49-BE92-F2987AC8A519}">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3367,13 +3407,13 @@
         <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>495</v>
       </c>
       <c r="C88" t="s">
         <v>190</v>
       </c>
       <c r="D88" t="s">
-        <v>201</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3381,13 +3421,13 @@
         <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>496</v>
       </c>
       <c r="C89" t="s">
         <v>190</v>
       </c>
       <c r="D89" t="s">
-        <v>202</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3395,13 +3435,13 @@
         <v>150</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>497</v>
       </c>
       <c r="C90" t="s">
         <v>190</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3409,13 +3449,13 @@
         <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
         <v>190</v>
       </c>
       <c r="D91" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3423,13 +3463,13 @@
         <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
         <v>190</v>
       </c>
       <c r="D92" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3437,13 +3477,13 @@
         <v>150</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
         <v>190</v>
       </c>
       <c r="D93" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3451,13 +3491,13 @@
         <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s">
         <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3465,13 +3505,13 @@
         <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
         <v>190</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3479,13 +3519,13 @@
         <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
         <v>190</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3493,13 +3533,13 @@
         <v>150</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
         <v>190</v>
       </c>
       <c r="D97" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3507,13 +3547,13 @@
         <v>150</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
         <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3521,13 +3561,13 @@
         <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
         <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3535,13 +3575,13 @@
         <v>150</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
         <v>190</v>
       </c>
       <c r="D100" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3549,13 +3589,13 @@
         <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s">
         <v>190</v>
       </c>
       <c r="D101" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3563,13 +3603,13 @@
         <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C102" t="s">
         <v>190</v>
       </c>
       <c r="D102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3577,13 +3617,13 @@
         <v>150</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
         <v>190</v>
       </c>
       <c r="D103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3591,13 +3631,13 @@
         <v>150</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C104" t="s">
         <v>190</v>
       </c>
       <c r="D104" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3605,13 +3645,13 @@
         <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C105" t="s">
         <v>190</v>
       </c>
       <c r="D105" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3619,13 +3659,13 @@
         <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s">
         <v>190</v>
       </c>
       <c r="D106" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3633,13 +3673,13 @@
         <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
         <v>190</v>
       </c>
       <c r="D107" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3647,13 +3687,13 @@
         <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
         <v>190</v>
       </c>
       <c r="D108" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3661,13 +3701,13 @@
         <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C109" t="s">
         <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3675,13 +3715,13 @@
         <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C110" t="s">
         <v>190</v>
       </c>
       <c r="D110" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3689,13 +3729,13 @@
         <v>150</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>501</v>
       </c>
       <c r="C111" t="s">
         <v>190</v>
       </c>
       <c r="D111" t="s">
-        <v>239</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3703,13 +3743,13 @@
         <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C112" t="s">
         <v>190</v>
       </c>
       <c r="D112" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3717,13 +3757,13 @@
         <v>150</v>
       </c>
       <c r="B113" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
         <v>190</v>
       </c>
       <c r="D113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3731,13 +3771,13 @@
         <v>150</v>
       </c>
       <c r="B114" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
         <v>190</v>
       </c>
       <c r="D114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3745,13 +3785,13 @@
         <v>150</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C115" t="s">
         <v>190</v>
       </c>
       <c r="D115" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3759,13 +3799,13 @@
         <v>150</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C116" t="s">
         <v>190</v>
       </c>
       <c r="D116" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3773,13 +3813,13 @@
         <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
         <v>190</v>
       </c>
       <c r="D117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3787,69 +3827,69 @@
         <v>150</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C118" t="s">
         <v>190</v>
       </c>
       <c r="D118" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D120" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C121" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D121" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C122" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D122" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3857,13 +3897,13 @@
         <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C123" t="s">
         <v>231</v>
       </c>
       <c r="D123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3871,13 +3911,13 @@
         <v>169</v>
       </c>
       <c r="B124" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C124" t="s">
         <v>231</v>
       </c>
       <c r="D124" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3885,13 +3925,13 @@
         <v>169</v>
       </c>
       <c r="B125" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C125" t="s">
         <v>231</v>
       </c>
       <c r="D125" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3899,13 +3939,13 @@
         <v>169</v>
       </c>
       <c r="B126" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C126" t="s">
         <v>231</v>
       </c>
       <c r="D126" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3913,13 +3953,13 @@
         <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C127" t="s">
         <v>231</v>
       </c>
       <c r="D127" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3927,13 +3967,13 @@
         <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C128" t="s">
         <v>231</v>
       </c>
       <c r="D128" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3941,13 +3981,13 @@
         <v>169</v>
       </c>
       <c r="B129" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C129" t="s">
         <v>231</v>
       </c>
       <c r="D129" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3955,13 +3995,13 @@
         <v>169</v>
       </c>
       <c r="B130" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C130" t="s">
         <v>231</v>
       </c>
       <c r="D130" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3969,13 +4009,13 @@
         <v>169</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s">
         <v>231</v>
       </c>
       <c r="D131" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3983,13 +4023,13 @@
         <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C132" t="s">
         <v>231</v>
       </c>
       <c r="D132" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3997,13 +4037,13 @@
         <v>169</v>
       </c>
       <c r="B133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C133" t="s">
         <v>231</v>
       </c>
       <c r="D133" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4011,13 +4051,13 @@
         <v>169</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C134" t="s">
         <v>231</v>
       </c>
       <c r="D134" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4025,13 +4065,13 @@
         <v>169</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C135" t="s">
         <v>231</v>
       </c>
       <c r="D135" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4039,69 +4079,69 @@
         <v>169</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C136" t="s">
         <v>231</v>
       </c>
       <c r="D136" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="C137" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D137" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="B138" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="C138" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D138" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D139" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="B140" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="C140" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D140" t="s">
-        <v>375</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4109,13 +4149,13 @@
         <v>265</v>
       </c>
       <c r="B141" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C141" t="s">
         <v>266</v>
       </c>
       <c r="D141" t="s">
-        <v>376</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4123,13 +4163,13 @@
         <v>265</v>
       </c>
       <c r="B142" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C142" t="s">
         <v>266</v>
       </c>
       <c r="D142" t="s">
-        <v>377</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4137,13 +4177,13 @@
         <v>265</v>
       </c>
       <c r="B143" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C143" t="s">
         <v>266</v>
       </c>
       <c r="D143" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4151,13 +4191,13 @@
         <v>265</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C144" t="s">
         <v>266</v>
       </c>
       <c r="D144" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4165,13 +4205,13 @@
         <v>265</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>493</v>
       </c>
       <c r="C145" t="s">
         <v>266</v>
       </c>
       <c r="D145" t="s">
-        <v>380</v>
+        <v>494</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4179,13 +4219,13 @@
         <v>265</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C146" t="s">
         <v>266</v>
       </c>
       <c r="D146" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4193,13 +4233,13 @@
         <v>265</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C147" t="s">
         <v>266</v>
       </c>
       <c r="D147" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4207,13 +4247,13 @@
         <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C148" t="s">
         <v>266</v>
       </c>
       <c r="D148" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4221,13 +4261,13 @@
         <v>265</v>
       </c>
       <c r="B149" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C149" t="s">
         <v>266</v>
       </c>
       <c r="D149" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4235,83 +4275,83 @@
         <v>265</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C150" t="s">
         <v>266</v>
       </c>
       <c r="D150" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C151" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="D151" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C152" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="D152" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B153" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C153" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="D153" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C154" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="D154" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C155" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="D155" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4319,13 +4359,13 @@
         <v>285</v>
       </c>
       <c r="B156" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C156" t="s">
         <v>386</v>
       </c>
       <c r="D156" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4333,13 +4373,13 @@
         <v>285</v>
       </c>
       <c r="B157" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C157" t="s">
         <v>386</v>
       </c>
       <c r="D157" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4347,13 +4387,13 @@
         <v>285</v>
       </c>
       <c r="B158" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C158" t="s">
         <v>386</v>
       </c>
       <c r="D158" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4361,13 +4401,13 @@
         <v>285</v>
       </c>
       <c r="B159" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C159" t="s">
         <v>386</v>
       </c>
       <c r="D159" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4375,13 +4415,13 @@
         <v>285</v>
       </c>
       <c r="B160" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C160" t="s">
         <v>386</v>
       </c>
       <c r="D160" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4389,13 +4429,13 @@
         <v>285</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C161" t="s">
         <v>386</v>
       </c>
       <c r="D161" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4403,13 +4443,13 @@
         <v>285</v>
       </c>
       <c r="B162" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C162" t="s">
         <v>386</v>
       </c>
       <c r="D162" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4417,13 +4457,13 @@
         <v>285</v>
       </c>
       <c r="B163" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C163" t="s">
         <v>386</v>
       </c>
       <c r="D163" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4431,13 +4471,13 @@
         <v>285</v>
       </c>
       <c r="B164" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C164" t="s">
         <v>386</v>
       </c>
       <c r="D164" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4445,13 +4485,13 @@
         <v>285</v>
       </c>
       <c r="B165" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C165" t="s">
         <v>386</v>
       </c>
       <c r="D165" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4459,83 +4499,83 @@
         <v>285</v>
       </c>
       <c r="B166" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C166" t="s">
         <v>386</v>
       </c>
       <c r="D166" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B167" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C167" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D167" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C168" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D168" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B169" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C169" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D169" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B170" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C170" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D170" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B171" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C171" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D171" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4543,13 +4583,13 @@
         <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C172" t="s">
         <v>404</v>
       </c>
       <c r="D172" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4557,13 +4597,13 @@
         <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C173" t="s">
         <v>404</v>
       </c>
       <c r="D173" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4571,13 +4611,13 @@
         <v>286</v>
       </c>
       <c r="B174" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C174" t="s">
         <v>404</v>
       </c>
       <c r="D174" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4585,13 +4625,13 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C175" t="s">
         <v>404</v>
       </c>
       <c r="D175" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4599,13 +4639,13 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C176" t="s">
         <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4613,13 +4653,13 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C177" t="s">
         <v>404</v>
       </c>
       <c r="D177" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4627,13 +4667,13 @@
         <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C178" t="s">
         <v>404</v>
       </c>
       <c r="D178" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4641,13 +4681,13 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C179" t="s">
         <v>404</v>
       </c>
       <c r="D179" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4655,13 +4695,13 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C180" t="s">
         <v>404</v>
       </c>
       <c r="D180" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4669,83 +4709,83 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C181" t="s">
         <v>404</v>
       </c>
       <c r="D181" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C182" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D182" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C183" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D183" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C184" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D184" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C185" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D185" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C186" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D186" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4753,13 +4793,13 @@
         <v>324</v>
       </c>
       <c r="B187" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C187" t="s">
         <v>419</v>
       </c>
       <c r="D187" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4767,13 +4807,13 @@
         <v>324</v>
       </c>
       <c r="B188" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C188" t="s">
         <v>419</v>
       </c>
       <c r="D188" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4781,13 +4821,13 @@
         <v>324</v>
       </c>
       <c r="B189" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C189" t="s">
         <v>419</v>
       </c>
       <c r="D189" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4795,13 +4835,13 @@
         <v>324</v>
       </c>
       <c r="B190" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C190" t="s">
         <v>419</v>
       </c>
       <c r="D190" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4809,13 +4849,13 @@
         <v>324</v>
       </c>
       <c r="B191" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C191" t="s">
         <v>419</v>
       </c>
       <c r="D191" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4823,13 +4863,13 @@
         <v>324</v>
       </c>
       <c r="B192" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C192" t="s">
         <v>419</v>
       </c>
       <c r="D192" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4837,13 +4877,13 @@
         <v>324</v>
       </c>
       <c r="B193" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C193" t="s">
         <v>419</v>
       </c>
       <c r="D193" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4851,13 +4891,13 @@
         <v>324</v>
       </c>
       <c r="B194" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C194" t="s">
         <v>419</v>
       </c>
       <c r="D194" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4865,13 +4905,13 @@
         <v>324</v>
       </c>
       <c r="B195" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C195" t="s">
         <v>419</v>
       </c>
       <c r="D195" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4879,13 +4919,13 @@
         <v>324</v>
       </c>
       <c r="B196" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C196" t="s">
         <v>419</v>
       </c>
       <c r="D196" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4893,13 +4933,13 @@
         <v>324</v>
       </c>
       <c r="B197" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C197" t="s">
         <v>419</v>
       </c>
       <c r="D197" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4907,13 +4947,13 @@
         <v>324</v>
       </c>
       <c r="B198" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C198" t="s">
         <v>419</v>
       </c>
       <c r="D198" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4921,13 +4961,13 @@
         <v>324</v>
       </c>
       <c r="B199" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C199" t="s">
         <v>419</v>
       </c>
       <c r="D199" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4935,13 +4975,13 @@
         <v>324</v>
       </c>
       <c r="B200" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C200" t="s">
         <v>419</v>
       </c>
       <c r="D200" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4949,13 +4989,13 @@
         <v>324</v>
       </c>
       <c r="B201" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C201" t="s">
         <v>419</v>
       </c>
       <c r="D201" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4963,13 +5003,13 @@
         <v>324</v>
       </c>
       <c r="B202" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C202" t="s">
         <v>419</v>
       </c>
       <c r="D202" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4977,83 +5017,83 @@
         <v>324</v>
       </c>
       <c r="B203" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C203" t="s">
         <v>419</v>
       </c>
       <c r="D203" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B204" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C204" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D204" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B205" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C205" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D205" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B206" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C206" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D206" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B207" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C207" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D207" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B208" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C208" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D208" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5061,13 +5101,13 @@
         <v>325</v>
       </c>
       <c r="B209" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C209" t="s">
         <v>443</v>
       </c>
       <c r="D209" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5075,13 +5115,13 @@
         <v>325</v>
       </c>
       <c r="B210" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C210" t="s">
         <v>443</v>
       </c>
       <c r="D210" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5089,13 +5129,13 @@
         <v>325</v>
       </c>
       <c r="B211" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C211" t="s">
         <v>443</v>
       </c>
       <c r="D211" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5103,13 +5143,13 @@
         <v>325</v>
       </c>
       <c r="B212" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C212" t="s">
         <v>443</v>
       </c>
       <c r="D212" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5117,13 +5157,13 @@
         <v>325</v>
       </c>
       <c r="B213" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C213" t="s">
         <v>443</v>
       </c>
       <c r="D213" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5131,13 +5171,13 @@
         <v>325</v>
       </c>
       <c r="B214" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C214" t="s">
         <v>443</v>
       </c>
       <c r="D214" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5145,13 +5185,13 @@
         <v>325</v>
       </c>
       <c r="B215" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C215" t="s">
         <v>443</v>
       </c>
       <c r="D215" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5159,13 +5199,13 @@
         <v>325</v>
       </c>
       <c r="B216" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C216" t="s">
         <v>443</v>
       </c>
       <c r="D216" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5173,13 +5213,13 @@
         <v>325</v>
       </c>
       <c r="B217" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C217" t="s">
         <v>443</v>
       </c>
       <c r="D217" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5187,13 +5227,13 @@
         <v>325</v>
       </c>
       <c r="B218" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C218" t="s">
         <v>443</v>
       </c>
       <c r="D218" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5201,13 +5241,13 @@
         <v>325</v>
       </c>
       <c r="B219" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C219" t="s">
         <v>443</v>
       </c>
       <c r="D219" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5215,13 +5255,13 @@
         <v>325</v>
       </c>
       <c r="B220" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C220" t="s">
         <v>443</v>
       </c>
       <c r="D220" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5229,13 +5269,13 @@
         <v>325</v>
       </c>
       <c r="B221" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C221" t="s">
         <v>443</v>
       </c>
       <c r="D221" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5243,13 +5283,13 @@
         <v>325</v>
       </c>
       <c r="B222" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C222" t="s">
         <v>443</v>
       </c>
       <c r="D222" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5257,13 +5297,13 @@
         <v>325</v>
       </c>
       <c r="B223" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
       <c r="C223" t="s">
         <v>443</v>
       </c>
       <c r="D223" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5271,13 +5311,13 @@
         <v>325</v>
       </c>
       <c r="B224" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C224" t="s">
         <v>443</v>
       </c>
       <c r="D224" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5285,13 +5325,13 @@
         <v>325</v>
       </c>
       <c r="B225" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C225" t="s">
         <v>443</v>
       </c>
       <c r="D225" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5299,13 +5339,13 @@
         <v>325</v>
       </c>
       <c r="B226" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C226" t="s">
         <v>443</v>
       </c>
       <c r="D226" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5313,83 +5353,83 @@
         <v>325</v>
       </c>
       <c r="B227" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C227" t="s">
         <v>443</v>
       </c>
       <c r="D227" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B228" t="s">
-        <v>350</v>
+        <v>462</v>
       </c>
       <c r="C228" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D228" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B229" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C229" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D229" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B230" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C230" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D230" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B231" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C231" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D231" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B232" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C232" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D232" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5397,13 +5437,13 @@
         <v>349</v>
       </c>
       <c r="B233" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C233" t="s">
         <v>469</v>
       </c>
       <c r="D233" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5411,13 +5451,13 @@
         <v>349</v>
       </c>
       <c r="B234" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C234" t="s">
         <v>469</v>
       </c>
       <c r="D234" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5425,13 +5465,13 @@
         <v>349</v>
       </c>
       <c r="B235" t="s">
-        <v>159</v>
+        <v>352</v>
       </c>
       <c r="C235" t="s">
         <v>469</v>
       </c>
       <c r="D235" t="s">
-        <v>241</v>
+        <v>471</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5439,13 +5479,13 @@
         <v>349</v>
       </c>
       <c r="B236" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C236" t="s">
         <v>469</v>
       </c>
       <c r="D236" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5453,13 +5493,13 @@
         <v>349</v>
       </c>
       <c r="B237" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C237" t="s">
         <v>469</v>
       </c>
       <c r="D237" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5467,13 +5507,13 @@
         <v>349</v>
       </c>
       <c r="B238" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C238" t="s">
         <v>469</v>
       </c>
       <c r="D238" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5481,13 +5521,13 @@
         <v>349</v>
       </c>
       <c r="B239" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C239" t="s">
         <v>469</v>
       </c>
       <c r="D239" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5495,13 +5535,13 @@
         <v>349</v>
       </c>
       <c r="B240" t="s">
-        <v>361</v>
+        <v>159</v>
       </c>
       <c r="C240" t="s">
         <v>469</v>
       </c>
       <c r="D240" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5509,13 +5549,13 @@
         <v>349</v>
       </c>
       <c r="B241" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C241" t="s">
         <v>469</v>
       </c>
       <c r="D241" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5523,13 +5563,13 @@
         <v>349</v>
       </c>
       <c r="B242" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C242" t="s">
         <v>469</v>
       </c>
       <c r="D242" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5537,13 +5577,13 @@
         <v>349</v>
       </c>
       <c r="B243" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C243" t="s">
         <v>469</v>
       </c>
       <c r="D243" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5551,13 +5591,13 @@
         <v>349</v>
       </c>
       <c r="B244" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C244" t="s">
         <v>469</v>
       </c>
       <c r="D244" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5565,13 +5605,13 @@
         <v>349</v>
       </c>
       <c r="B245" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C245" t="s">
         <v>469</v>
       </c>
       <c r="D245" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5579,13 +5619,13 @@
         <v>349</v>
       </c>
       <c r="B246" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C246" t="s">
         <v>469</v>
       </c>
       <c r="D246" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5593,13 +5633,13 @@
         <v>349</v>
       </c>
       <c r="B247" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C247" t="s">
         <v>469</v>
       </c>
       <c r="D247" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5607,13 +5647,13 @@
         <v>349</v>
       </c>
       <c r="B248" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C248" t="s">
         <v>469</v>
       </c>
       <c r="D248" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5621,40 +5661,110 @@
         <v>349</v>
       </c>
       <c r="B249" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C249" t="s">
         <v>469</v>
       </c>
       <c r="D249" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B250" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C250" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="D250" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
+        <v>349</v>
+      </c>
+      <c r="B251" t="s">
+        <v>367</v>
+      </c>
+      <c r="C251" t="s">
+        <v>469</v>
+      </c>
+      <c r="D251" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>349</v>
+      </c>
+      <c r="B252" t="s">
+        <v>368</v>
+      </c>
+      <c r="C252" t="s">
+        <v>469</v>
+      </c>
+      <c r="D252" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>349</v>
+      </c>
+      <c r="B253" t="s">
+        <v>369</v>
+      </c>
+      <c r="C253" t="s">
+        <v>469</v>
+      </c>
+      <c r="D253" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>349</v>
+      </c>
+      <c r="B254" t="s">
+        <v>370</v>
+      </c>
+      <c r="C254" t="s">
+        <v>469</v>
+      </c>
+      <c r="D254" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
         <v>371</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B255" t="s">
+        <v>372</v>
+      </c>
+      <c r="C255" t="s">
+        <v>490</v>
+      </c>
+      <c r="D255" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>371</v>
+      </c>
+      <c r="B256" t="s">
         <v>373</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C256" t="s">
         <v>490</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D256" t="s">
         <v>492</v>
       </c>
     </row>

--- a/kor2eng.xlsx
+++ b/kor2eng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SeungwooKang_1/Documents/GitHub/south-korea-election/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/south-korea-election/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338760DC-5EE9-494C-8281-D35994355423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E53337-00B7-8744-8BE2-BD2B15D03B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19080" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{485E5265-5BD5-BA4D-8DB3-B0C0895E5122}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="516">
   <si>
     <t>종로구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1809,6 +1809,58 @@
   </si>
   <si>
     <t>Yeoju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheonan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연기군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongi-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당진군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangjin-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고성군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마산시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Masan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinhae-si</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2173,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7418C56A-0A02-6E49-BE92-F2987AC8A519}">
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E241" sqref="E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4387,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B158" t="s">
-        <v>271</v>
+        <v>503</v>
       </c>
       <c r="C158" t="s">
         <v>386</v>
       </c>
       <c r="D158" t="s">
-        <v>389</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4401,13 +4453,13 @@
         <v>285</v>
       </c>
       <c r="B159" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C159" t="s">
         <v>386</v>
       </c>
       <c r="D159" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4415,13 +4467,13 @@
         <v>285</v>
       </c>
       <c r="B160" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C160" t="s">
         <v>386</v>
       </c>
       <c r="D160" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4429,13 +4481,13 @@
         <v>285</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C161" t="s">
         <v>386</v>
       </c>
       <c r="D161" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4443,13 +4495,13 @@
         <v>285</v>
       </c>
       <c r="B162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C162" t="s">
         <v>386</v>
       </c>
       <c r="D162" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4457,13 +4509,13 @@
         <v>285</v>
       </c>
       <c r="B163" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C163" t="s">
         <v>386</v>
       </c>
       <c r="D163" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4471,13 +4523,13 @@
         <v>285</v>
       </c>
       <c r="B164" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C164" t="s">
         <v>386</v>
       </c>
       <c r="D164" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4485,13 +4537,13 @@
         <v>285</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s">
         <v>386</v>
       </c>
       <c r="D165" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4499,13 +4551,13 @@
         <v>285</v>
       </c>
       <c r="B166" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C166" t="s">
         <v>386</v>
       </c>
       <c r="D166" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4513,13 +4565,13 @@
         <v>285</v>
       </c>
       <c r="B167" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C167" t="s">
         <v>386</v>
       </c>
       <c r="D167" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4527,13 +4579,13 @@
         <v>285</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>507</v>
       </c>
       <c r="C168" t="s">
         <v>386</v>
       </c>
       <c r="D168" t="s">
-        <v>399</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4541,13 +4593,13 @@
         <v>285</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C169" t="s">
         <v>386</v>
       </c>
       <c r="D169" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4555,13 +4607,13 @@
         <v>285</v>
       </c>
       <c r="B170" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C170" t="s">
         <v>386</v>
       </c>
       <c r="D170" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4569,55 +4621,55 @@
         <v>285</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C171" t="s">
         <v>386</v>
       </c>
       <c r="D171" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B172" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C172" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D172" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B173" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C173" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D173" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B174" t="s">
-        <v>289</v>
+        <v>505</v>
       </c>
       <c r="C174" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D174" t="s">
-        <v>406</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4625,13 +4677,13 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C175" t="s">
         <v>404</v>
       </c>
       <c r="D175" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4639,13 +4691,13 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C176" t="s">
         <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4653,13 +4705,13 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C177" t="s">
         <v>404</v>
       </c>
       <c r="D177" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4667,13 +4719,13 @@
         <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C178" t="s">
         <v>404</v>
       </c>
       <c r="D178" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4681,13 +4733,13 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C179" t="s">
         <v>404</v>
       </c>
       <c r="D179" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4695,13 +4747,13 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C180" t="s">
         <v>404</v>
       </c>
       <c r="D180" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4709,13 +4761,13 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C181" t="s">
         <v>404</v>
       </c>
       <c r="D181" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4723,13 +4775,13 @@
         <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C182" t="s">
         <v>404</v>
       </c>
       <c r="D182" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4737,13 +4789,13 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C183" t="s">
         <v>404</v>
       </c>
       <c r="D183" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4751,13 +4803,13 @@
         <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C184" t="s">
         <v>404</v>
       </c>
       <c r="D184" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4765,13 +4817,13 @@
         <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C185" t="s">
         <v>404</v>
       </c>
       <c r="D185" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4779,55 +4831,55 @@
         <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C186" t="s">
         <v>404</v>
       </c>
       <c r="D186" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C187" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D187" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C188" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D188" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C189" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D189" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4835,13 +4887,13 @@
         <v>324</v>
       </c>
       <c r="B190" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C190" t="s">
         <v>419</v>
       </c>
       <c r="D190" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4849,13 +4901,13 @@
         <v>324</v>
       </c>
       <c r="B191" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C191" t="s">
         <v>419</v>
       </c>
       <c r="D191" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4863,13 +4915,13 @@
         <v>324</v>
       </c>
       <c r="B192" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C192" t="s">
         <v>419</v>
       </c>
       <c r="D192" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4877,13 +4929,13 @@
         <v>324</v>
       </c>
       <c r="B193" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C193" t="s">
         <v>419</v>
       </c>
       <c r="D193" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4891,13 +4943,13 @@
         <v>324</v>
       </c>
       <c r="B194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C194" t="s">
         <v>419</v>
       </c>
       <c r="D194" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4905,13 +4957,13 @@
         <v>324</v>
       </c>
       <c r="B195" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C195" t="s">
         <v>419</v>
       </c>
       <c r="D195" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4919,13 +4971,13 @@
         <v>324</v>
       </c>
       <c r="B196" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C196" t="s">
         <v>419</v>
       </c>
       <c r="D196" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4933,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B197" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C197" t="s">
         <v>419</v>
       </c>
       <c r="D197" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4947,13 +4999,13 @@
         <v>324</v>
       </c>
       <c r="B198" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C198" t="s">
         <v>419</v>
       </c>
       <c r="D198" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4961,13 +5013,13 @@
         <v>324</v>
       </c>
       <c r="B199" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C199" t="s">
         <v>419</v>
       </c>
       <c r="D199" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4975,13 +5027,13 @@
         <v>324</v>
       </c>
       <c r="B200" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C200" t="s">
         <v>419</v>
       </c>
       <c r="D200" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4989,13 +5041,13 @@
         <v>324</v>
       </c>
       <c r="B201" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C201" t="s">
         <v>419</v>
       </c>
       <c r="D201" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5003,13 +5055,13 @@
         <v>324</v>
       </c>
       <c r="B202" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C202" t="s">
         <v>419</v>
       </c>
       <c r="D202" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5017,13 +5069,13 @@
         <v>324</v>
       </c>
       <c r="B203" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C203" t="s">
         <v>419</v>
       </c>
       <c r="D203" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5031,13 +5083,13 @@
         <v>324</v>
       </c>
       <c r="B204" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C204" t="s">
         <v>419</v>
       </c>
       <c r="D204" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5045,13 +5097,13 @@
         <v>324</v>
       </c>
       <c r="B205" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C205" t="s">
         <v>419</v>
       </c>
       <c r="D205" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5059,13 +5111,13 @@
         <v>324</v>
       </c>
       <c r="B206" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C206" t="s">
         <v>419</v>
       </c>
       <c r="D206" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5073,13 +5125,13 @@
         <v>324</v>
       </c>
       <c r="B207" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C207" t="s">
         <v>419</v>
       </c>
       <c r="D207" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5087,55 +5139,55 @@
         <v>324</v>
       </c>
       <c r="B208" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C208" t="s">
         <v>419</v>
       </c>
       <c r="D208" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B209" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C209" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D209" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B210" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C210" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D210" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B211" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C211" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D211" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5143,13 +5195,13 @@
         <v>325</v>
       </c>
       <c r="B212" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C212" t="s">
         <v>443</v>
       </c>
       <c r="D212" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5157,13 +5209,13 @@
         <v>325</v>
       </c>
       <c r="B213" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C213" t="s">
         <v>443</v>
       </c>
       <c r="D213" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5171,13 +5223,13 @@
         <v>325</v>
       </c>
       <c r="B214" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C214" t="s">
         <v>443</v>
       </c>
       <c r="D214" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5185,13 +5237,13 @@
         <v>325</v>
       </c>
       <c r="B215" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C215" t="s">
         <v>443</v>
       </c>
       <c r="D215" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5199,13 +5251,13 @@
         <v>325</v>
       </c>
       <c r="B216" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C216" t="s">
         <v>443</v>
       </c>
       <c r="D216" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5213,13 +5265,13 @@
         <v>325</v>
       </c>
       <c r="B217" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C217" t="s">
         <v>443</v>
       </c>
       <c r="D217" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5227,13 +5279,13 @@
         <v>325</v>
       </c>
       <c r="B218" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C218" t="s">
         <v>443</v>
       </c>
       <c r="D218" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5241,13 +5293,13 @@
         <v>325</v>
       </c>
       <c r="B219" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C219" t="s">
         <v>443</v>
       </c>
       <c r="D219" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5255,13 +5307,13 @@
         <v>325</v>
       </c>
       <c r="B220" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C220" t="s">
         <v>443</v>
       </c>
       <c r="D220" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5269,13 +5321,13 @@
         <v>325</v>
       </c>
       <c r="B221" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C221" t="s">
         <v>443</v>
       </c>
       <c r="D221" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5283,13 +5335,13 @@
         <v>325</v>
       </c>
       <c r="B222" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C222" t="s">
         <v>443</v>
       </c>
       <c r="D222" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5297,13 +5349,13 @@
         <v>325</v>
       </c>
       <c r="B223" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C223" t="s">
         <v>443</v>
       </c>
       <c r="D223" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5311,13 +5363,13 @@
         <v>325</v>
       </c>
       <c r="B224" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C224" t="s">
         <v>443</v>
       </c>
       <c r="D224" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5325,13 +5377,13 @@
         <v>325</v>
       </c>
       <c r="B225" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C225" t="s">
         <v>443</v>
       </c>
       <c r="D225" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5339,13 +5391,13 @@
         <v>325</v>
       </c>
       <c r="B226" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C226" t="s">
         <v>443</v>
       </c>
       <c r="D226" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5353,13 +5405,13 @@
         <v>325</v>
       </c>
       <c r="B227" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C227" t="s">
         <v>443</v>
       </c>
       <c r="D227" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5367,13 +5419,13 @@
         <v>325</v>
       </c>
       <c r="B228" t="s">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="C228" t="s">
         <v>443</v>
       </c>
       <c r="D228" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5381,13 +5433,13 @@
         <v>325</v>
       </c>
       <c r="B229" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C229" t="s">
         <v>443</v>
       </c>
       <c r="D229" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5395,13 +5447,13 @@
         <v>325</v>
       </c>
       <c r="B230" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C230" t="s">
         <v>443</v>
       </c>
       <c r="D230" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5409,13 +5461,13 @@
         <v>325</v>
       </c>
       <c r="B231" t="s">
-        <v>347</v>
+        <v>462</v>
       </c>
       <c r="C231" t="s">
         <v>443</v>
       </c>
       <c r="D231" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5423,55 +5475,55 @@
         <v>325</v>
       </c>
       <c r="B232" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C232" t="s">
         <v>443</v>
       </c>
       <c r="D232" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B233" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C233" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D233" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B234" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C234" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D234" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B235" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C235" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D235" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5479,13 +5531,13 @@
         <v>349</v>
       </c>
       <c r="B236" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C236" t="s">
         <v>469</v>
       </c>
       <c r="D236" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5493,13 +5545,13 @@
         <v>349</v>
       </c>
       <c r="B237" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C237" t="s">
         <v>469</v>
       </c>
       <c r="D237" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5507,13 +5559,13 @@
         <v>349</v>
       </c>
       <c r="B238" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C238" t="s">
         <v>469</v>
       </c>
       <c r="D238" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5521,13 +5573,13 @@
         <v>349</v>
       </c>
       <c r="B239" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C239" t="s">
         <v>469</v>
       </c>
       <c r="D239" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5535,13 +5587,13 @@
         <v>349</v>
       </c>
       <c r="B240" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
       <c r="C240" t="s">
         <v>469</v>
       </c>
       <c r="D240" t="s">
-        <v>241</v>
+        <v>473</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5549,13 +5601,13 @@
         <v>349</v>
       </c>
       <c r="B241" t="s">
-        <v>357</v>
+        <v>509</v>
       </c>
       <c r="C241" t="s">
         <v>469</v>
       </c>
       <c r="D241" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5563,13 +5615,13 @@
         <v>349</v>
       </c>
       <c r="B242" t="s">
-        <v>358</v>
+        <v>512</v>
       </c>
       <c r="C242" t="s">
         <v>469</v>
       </c>
       <c r="D242" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5577,13 +5629,13 @@
         <v>349</v>
       </c>
       <c r="B243" t="s">
-        <v>359</v>
+        <v>513</v>
       </c>
       <c r="C243" t="s">
         <v>469</v>
       </c>
       <c r="D243" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5591,13 +5643,13 @@
         <v>349</v>
       </c>
       <c r="B244" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C244" t="s">
         <v>469</v>
       </c>
       <c r="D244" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5605,13 +5657,13 @@
         <v>349</v>
       </c>
       <c r="B245" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C245" t="s">
         <v>469</v>
       </c>
       <c r="D245" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5619,13 +5671,13 @@
         <v>349</v>
       </c>
       <c r="B246" t="s">
-        <v>362</v>
+        <v>511</v>
       </c>
       <c r="C246" t="s">
         <v>469</v>
       </c>
       <c r="D246" t="s">
-        <v>481</v>
+        <v>241</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5633,13 +5685,13 @@
         <v>349</v>
       </c>
       <c r="B247" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C247" t="s">
         <v>469</v>
       </c>
       <c r="D247" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5647,13 +5699,13 @@
         <v>349</v>
       </c>
       <c r="B248" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C248" t="s">
         <v>469</v>
       </c>
       <c r="D248" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5661,13 +5713,13 @@
         <v>349</v>
       </c>
       <c r="B249" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C249" t="s">
         <v>469</v>
       </c>
       <c r="D249" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5675,13 +5727,13 @@
         <v>349</v>
       </c>
       <c r="B250" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C250" t="s">
         <v>469</v>
       </c>
       <c r="D250" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5689,13 +5741,13 @@
         <v>349</v>
       </c>
       <c r="B251" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C251" t="s">
         <v>469</v>
       </c>
       <c r="D251" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5703,13 +5755,13 @@
         <v>349</v>
       </c>
       <c r="B252" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C252" t="s">
         <v>469</v>
       </c>
       <c r="D252" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5717,13 +5769,13 @@
         <v>349</v>
       </c>
       <c r="B253" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C253" t="s">
         <v>469</v>
       </c>
       <c r="D253" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5731,40 +5783,124 @@
         <v>349</v>
       </c>
       <c r="B254" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C254" t="s">
         <v>469</v>
       </c>
       <c r="D254" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B255" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C255" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="D255" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
+        <v>349</v>
+      </c>
+      <c r="B256" t="s">
+        <v>366</v>
+      </c>
+      <c r="C256" t="s">
+        <v>469</v>
+      </c>
+      <c r="D256" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>349</v>
+      </c>
+      <c r="B257" t="s">
+        <v>367</v>
+      </c>
+      <c r="C257" t="s">
+        <v>469</v>
+      </c>
+      <c r="D257" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>349</v>
+      </c>
+      <c r="B258" t="s">
+        <v>368</v>
+      </c>
+      <c r="C258" t="s">
+        <v>469</v>
+      </c>
+      <c r="D258" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>349</v>
+      </c>
+      <c r="B259" t="s">
+        <v>369</v>
+      </c>
+      <c r="C259" t="s">
+        <v>469</v>
+      </c>
+      <c r="D259" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>349</v>
+      </c>
+      <c r="B260" t="s">
+        <v>370</v>
+      </c>
+      <c r="C260" t="s">
+        <v>469</v>
+      </c>
+      <c r="D260" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
         <v>371</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B261" t="s">
+        <v>372</v>
+      </c>
+      <c r="C261" t="s">
+        <v>490</v>
+      </c>
+      <c r="D261" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>371</v>
+      </c>
+      <c r="B262" t="s">
         <v>373</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C262" t="s">
         <v>490</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D262" t="s">
         <v>492</v>
       </c>
     </row>

--- a/kor2eng.xlsx
+++ b/kor2eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/south-korea-election/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E53337-00B7-8744-8BE2-BD2B15D03B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A7F256-D151-7946-BE22-DEB12624704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19080" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{485E5265-5BD5-BA4D-8DB3-B0C0895E5122}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="528">
   <si>
     <t>종로구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1861,6 +1861,54 @@
   </si>
   <si>
     <t>Jinhae-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양시일산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ilsan-gu, Goyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yongin-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포천군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pocheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북제주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남제주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bukjeju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namjeju-gun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2225,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7418C56A-0A02-6E49-BE92-F2987AC8A519}">
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:D268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E241" sqref="E241"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D269" sqref="D269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3543,13 +3591,13 @@
         <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>516</v>
       </c>
       <c r="C94" t="s">
         <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>204</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3557,13 +3605,13 @@
         <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
         <v>190</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3571,13 +3619,13 @@
         <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
         <v>190</v>
       </c>
       <c r="D96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3585,13 +3633,13 @@
         <v>150</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s">
         <v>190</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3599,13 +3647,13 @@
         <v>150</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98" t="s">
         <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3613,13 +3661,13 @@
         <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
         <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3627,13 +3675,13 @@
         <v>150</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
         <v>190</v>
       </c>
       <c r="D100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3641,13 +3689,13 @@
         <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>518</v>
       </c>
       <c r="C101" t="s">
         <v>190</v>
       </c>
       <c r="D101" t="s">
-        <v>211</v>
+        <v>519</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3655,13 +3703,13 @@
         <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C102" t="s">
         <v>190</v>
       </c>
       <c r="D102" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3669,13 +3717,13 @@
         <v>150</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C103" t="s">
         <v>190</v>
       </c>
       <c r="D103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3683,13 +3731,13 @@
         <v>150</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C104" t="s">
         <v>190</v>
       </c>
       <c r="D104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3697,13 +3745,13 @@
         <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
         <v>190</v>
       </c>
       <c r="D105" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3711,13 +3759,13 @@
         <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C106" t="s">
         <v>190</v>
       </c>
       <c r="D106" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3725,13 +3773,13 @@
         <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C107" t="s">
         <v>190</v>
       </c>
       <c r="D107" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3739,13 +3787,13 @@
         <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
         <v>190</v>
       </c>
       <c r="D108" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3753,13 +3801,13 @@
         <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C109" t="s">
         <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3767,13 +3815,13 @@
         <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C110" t="s">
         <v>190</v>
       </c>
       <c r="D110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3781,13 +3829,13 @@
         <v>150</v>
       </c>
       <c r="B111" t="s">
-        <v>501</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s">
         <v>190</v>
       </c>
       <c r="D111" t="s">
-        <v>502</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3795,13 +3843,13 @@
         <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
         <v>190</v>
       </c>
       <c r="D112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3809,13 +3857,13 @@
         <v>150</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>501</v>
       </c>
       <c r="C113" t="s">
         <v>190</v>
       </c>
       <c r="D113" t="s">
-        <v>222</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3823,13 +3871,13 @@
         <v>150</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C114" t="s">
         <v>190</v>
       </c>
       <c r="D114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3837,13 +3885,13 @@
         <v>150</v>
       </c>
       <c r="B115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
         <v>190</v>
       </c>
       <c r="D115" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3851,13 +3899,13 @@
         <v>150</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
         <v>190</v>
       </c>
       <c r="D116" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3865,13 +3913,13 @@
         <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C117" t="s">
         <v>190</v>
       </c>
       <c r="D117" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3879,13 +3927,13 @@
         <v>150</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>520</v>
       </c>
       <c r="C118" t="s">
         <v>190</v>
       </c>
       <c r="D118" t="s">
-        <v>226</v>
+        <v>521</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3893,13 +3941,13 @@
         <v>150</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C119" t="s">
         <v>190</v>
       </c>
       <c r="D119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3907,13 +3955,13 @@
         <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
         <v>190</v>
       </c>
       <c r="D120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3921,13 +3969,13 @@
         <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
         <v>190</v>
       </c>
       <c r="D121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3935,69 +3983,69 @@
         <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
         <v>190</v>
       </c>
       <c r="D122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>151</v>
+        <v>522</v>
       </c>
       <c r="C123" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>523</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B124" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D124" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D125" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D126" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4005,13 +4053,13 @@
         <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s">
         <v>231</v>
       </c>
       <c r="D127" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4019,13 +4067,13 @@
         <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C128" t="s">
         <v>231</v>
       </c>
       <c r="D128" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4033,13 +4081,13 @@
         <v>169</v>
       </c>
       <c r="B129" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
         <v>231</v>
       </c>
       <c r="D129" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4047,13 +4095,13 @@
         <v>169</v>
       </c>
       <c r="B130" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C130" t="s">
         <v>231</v>
       </c>
       <c r="D130" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4061,13 +4109,13 @@
         <v>169</v>
       </c>
       <c r="B131" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C131" t="s">
         <v>231</v>
       </c>
       <c r="D131" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4075,13 +4123,13 @@
         <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
         <v>231</v>
       </c>
       <c r="D132" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4089,13 +4137,13 @@
         <v>169</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
         <v>231</v>
       </c>
       <c r="D133" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4103,13 +4151,13 @@
         <v>169</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
         <v>231</v>
       </c>
       <c r="D134" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4117,13 +4165,13 @@
         <v>169</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
         <v>231</v>
       </c>
       <c r="D135" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4131,13 +4179,13 @@
         <v>169</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C136" t="s">
         <v>231</v>
       </c>
       <c r="D136" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4145,13 +4193,13 @@
         <v>169</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C137" t="s">
         <v>231</v>
       </c>
       <c r="D137" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4159,13 +4207,13 @@
         <v>169</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C138" t="s">
         <v>231</v>
       </c>
       <c r="D138" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4173,13 +4221,13 @@
         <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
         <v>231</v>
       </c>
       <c r="D139" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4187,69 +4235,69 @@
         <v>169</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
         <v>231</v>
       </c>
       <c r="D140" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="C141" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D141" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D142" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="C143" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D143" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="C144" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D144" t="s">
-        <v>375</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4257,13 +4305,13 @@
         <v>265</v>
       </c>
       <c r="B145" t="s">
-        <v>493</v>
+        <v>251</v>
       </c>
       <c r="C145" t="s">
         <v>266</v>
       </c>
       <c r="D145" t="s">
-        <v>494</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4271,13 +4319,13 @@
         <v>265</v>
       </c>
       <c r="B146" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C146" t="s">
         <v>266</v>
       </c>
       <c r="D146" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4285,13 +4333,13 @@
         <v>265</v>
       </c>
       <c r="B147" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C147" t="s">
         <v>266</v>
       </c>
       <c r="D147" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4299,13 +4347,13 @@
         <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C148" t="s">
         <v>266</v>
       </c>
       <c r="D148" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4313,13 +4361,13 @@
         <v>265</v>
       </c>
       <c r="B149" t="s">
-        <v>258</v>
+        <v>493</v>
       </c>
       <c r="C149" t="s">
         <v>266</v>
       </c>
       <c r="D149" t="s">
-        <v>379</v>
+        <v>494</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4327,13 +4375,13 @@
         <v>265</v>
       </c>
       <c r="B150" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C150" t="s">
         <v>266</v>
       </c>
       <c r="D150" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4341,13 +4389,13 @@
         <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C151" t="s">
         <v>266</v>
       </c>
       <c r="D151" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4355,13 +4403,13 @@
         <v>265</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C152" t="s">
         <v>266</v>
       </c>
       <c r="D152" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4369,13 +4417,13 @@
         <v>265</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C153" t="s">
         <v>266</v>
       </c>
       <c r="D153" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4383,13 +4431,13 @@
         <v>265</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C154" t="s">
         <v>266</v>
       </c>
       <c r="D154" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4397,69 +4445,69 @@
         <v>265</v>
       </c>
       <c r="B155" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C155" t="s">
         <v>266</v>
       </c>
       <c r="D155" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B156" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C156" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="D156" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B157" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C157" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="D157" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B158" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="C158" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="D158" t="s">
-        <v>504</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B159" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C159" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="D159" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4467,13 +4515,13 @@
         <v>285</v>
       </c>
       <c r="B160" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C160" t="s">
         <v>386</v>
       </c>
       <c r="D160" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4481,13 +4529,13 @@
         <v>285</v>
       </c>
       <c r="B161" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C161" t="s">
         <v>386</v>
       </c>
       <c r="D161" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4495,13 +4543,13 @@
         <v>285</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>503</v>
       </c>
       <c r="C162" t="s">
         <v>386</v>
       </c>
       <c r="D162" t="s">
-        <v>392</v>
+        <v>504</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4509,13 +4557,13 @@
         <v>285</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C163" t="s">
         <v>386</v>
       </c>
       <c r="D163" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4523,13 +4571,13 @@
         <v>285</v>
       </c>
       <c r="B164" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C164" t="s">
         <v>386</v>
       </c>
       <c r="D164" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4537,13 +4585,13 @@
         <v>285</v>
       </c>
       <c r="B165" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C165" t="s">
         <v>386</v>
       </c>
       <c r="D165" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4551,13 +4599,13 @@
         <v>285</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C166" t="s">
         <v>386</v>
       </c>
       <c r="D166" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4565,13 +4613,13 @@
         <v>285</v>
       </c>
       <c r="B167" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C167" t="s">
         <v>386</v>
       </c>
       <c r="D167" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4579,13 +4627,13 @@
         <v>285</v>
       </c>
       <c r="B168" t="s">
-        <v>507</v>
+        <v>276</v>
       </c>
       <c r="C168" t="s">
         <v>386</v>
       </c>
       <c r="D168" t="s">
-        <v>508</v>
+        <v>394</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4593,13 +4641,13 @@
         <v>285</v>
       </c>
       <c r="B169" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C169" t="s">
         <v>386</v>
       </c>
       <c r="D169" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4607,13 +4655,13 @@
         <v>285</v>
       </c>
       <c r="B170" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C170" t="s">
         <v>386</v>
       </c>
       <c r="D170" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4621,13 +4669,13 @@
         <v>285</v>
       </c>
       <c r="B171" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C171" t="s">
         <v>386</v>
       </c>
       <c r="D171" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4635,13 +4683,13 @@
         <v>285</v>
       </c>
       <c r="B172" t="s">
-        <v>283</v>
+        <v>507</v>
       </c>
       <c r="C172" t="s">
         <v>386</v>
       </c>
       <c r="D172" t="s">
-        <v>401</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4649,13 +4697,13 @@
         <v>285</v>
       </c>
       <c r="B173" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C173" t="s">
         <v>386</v>
       </c>
       <c r="D173" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4663,69 +4711,69 @@
         <v>285</v>
       </c>
       <c r="B174" t="s">
-        <v>505</v>
+        <v>281</v>
       </c>
       <c r="C174" t="s">
         <v>386</v>
       </c>
       <c r="D174" t="s">
-        <v>506</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B175" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C175" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D175" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B176" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C176" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D176" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B177" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C177" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D177" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
-        <v>290</v>
+        <v>505</v>
       </c>
       <c r="C178" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D178" t="s">
-        <v>407</v>
+        <v>506</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4733,13 +4781,13 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C179" t="s">
         <v>404</v>
       </c>
       <c r="D179" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4747,13 +4795,13 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C180" t="s">
         <v>404</v>
       </c>
       <c r="D180" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4761,13 +4809,13 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C181" t="s">
         <v>404</v>
       </c>
       <c r="D181" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4775,13 +4823,13 @@
         <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C182" t="s">
         <v>404</v>
       </c>
       <c r="D182" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4789,13 +4837,13 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C183" t="s">
         <v>404</v>
       </c>
       <c r="D183" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4803,13 +4851,13 @@
         <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C184" t="s">
         <v>404</v>
       </c>
       <c r="D184" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4817,13 +4865,13 @@
         <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C185" t="s">
         <v>404</v>
       </c>
       <c r="D185" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4831,13 +4879,13 @@
         <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C186" t="s">
         <v>404</v>
       </c>
       <c r="D186" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4845,13 +4893,13 @@
         <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C187" t="s">
         <v>404</v>
       </c>
       <c r="D187" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4859,13 +4907,13 @@
         <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C188" t="s">
         <v>404</v>
       </c>
       <c r="D188" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4873,69 +4921,69 @@
         <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C189" t="s">
         <v>404</v>
       </c>
       <c r="D189" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C190" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D190" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C191" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D191" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C192" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D192" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C193" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D193" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4943,13 +4991,13 @@
         <v>324</v>
       </c>
       <c r="B194" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C194" t="s">
         <v>419</v>
       </c>
       <c r="D194" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4957,13 +5005,13 @@
         <v>324</v>
       </c>
       <c r="B195" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C195" t="s">
         <v>419</v>
       </c>
       <c r="D195" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4971,13 +5019,13 @@
         <v>324</v>
       </c>
       <c r="B196" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C196" t="s">
         <v>419</v>
       </c>
       <c r="D196" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4985,13 +5033,13 @@
         <v>324</v>
       </c>
       <c r="B197" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C197" t="s">
         <v>419</v>
       </c>
       <c r="D197" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4999,13 +5047,13 @@
         <v>324</v>
       </c>
       <c r="B198" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C198" t="s">
         <v>419</v>
       </c>
       <c r="D198" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5013,13 +5061,13 @@
         <v>324</v>
       </c>
       <c r="B199" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C199" t="s">
         <v>419</v>
       </c>
       <c r="D199" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5027,13 +5075,13 @@
         <v>324</v>
       </c>
       <c r="B200" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C200" t="s">
         <v>419</v>
       </c>
       <c r="D200" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5041,13 +5089,13 @@
         <v>324</v>
       </c>
       <c r="B201" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C201" t="s">
         <v>419</v>
       </c>
       <c r="D201" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5055,13 +5103,13 @@
         <v>324</v>
       </c>
       <c r="B202" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C202" t="s">
         <v>419</v>
       </c>
       <c r="D202" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5069,13 +5117,13 @@
         <v>324</v>
       </c>
       <c r="B203" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C203" t="s">
         <v>419</v>
       </c>
       <c r="D203" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5083,13 +5131,13 @@
         <v>324</v>
       </c>
       <c r="B204" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C204" t="s">
         <v>419</v>
       </c>
       <c r="D204" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5097,13 +5145,13 @@
         <v>324</v>
       </c>
       <c r="B205" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C205" t="s">
         <v>419</v>
       </c>
       <c r="D205" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5111,13 +5159,13 @@
         <v>324</v>
       </c>
       <c r="B206" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C206" t="s">
         <v>419</v>
       </c>
       <c r="D206" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5125,13 +5173,13 @@
         <v>324</v>
       </c>
       <c r="B207" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C207" t="s">
         <v>419</v>
       </c>
       <c r="D207" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5139,13 +5187,13 @@
         <v>324</v>
       </c>
       <c r="B208" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C208" t="s">
         <v>419</v>
       </c>
       <c r="D208" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5153,13 +5201,13 @@
         <v>324</v>
       </c>
       <c r="B209" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C209" t="s">
         <v>419</v>
       </c>
       <c r="D209" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5167,13 +5215,13 @@
         <v>324</v>
       </c>
       <c r="B210" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C210" t="s">
         <v>419</v>
       </c>
       <c r="D210" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5181,69 +5229,69 @@
         <v>324</v>
       </c>
       <c r="B211" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C211" t="s">
         <v>419</v>
       </c>
       <c r="D211" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B212" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C212" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D212" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B213" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C213" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D213" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B214" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C214" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D214" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B215" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C215" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D215" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5251,13 +5299,13 @@
         <v>325</v>
       </c>
       <c r="B216" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C216" t="s">
         <v>443</v>
       </c>
       <c r="D216" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5265,13 +5313,13 @@
         <v>325</v>
       </c>
       <c r="B217" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C217" t="s">
         <v>443</v>
       </c>
       <c r="D217" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5279,13 +5327,13 @@
         <v>325</v>
       </c>
       <c r="B218" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C218" t="s">
         <v>443</v>
       </c>
       <c r="D218" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5293,13 +5341,13 @@
         <v>325</v>
       </c>
       <c r="B219" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C219" t="s">
         <v>443</v>
       </c>
       <c r="D219" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5307,13 +5355,13 @@
         <v>325</v>
       </c>
       <c r="B220" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C220" t="s">
         <v>443</v>
       </c>
       <c r="D220" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5321,13 +5369,13 @@
         <v>325</v>
       </c>
       <c r="B221" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C221" t="s">
         <v>443</v>
       </c>
       <c r="D221" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5335,13 +5383,13 @@
         <v>325</v>
       </c>
       <c r="B222" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C222" t="s">
         <v>443</v>
       </c>
       <c r="D222" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5349,13 +5397,13 @@
         <v>325</v>
       </c>
       <c r="B223" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C223" t="s">
         <v>443</v>
       </c>
       <c r="D223" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5363,13 +5411,13 @@
         <v>325</v>
       </c>
       <c r="B224" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C224" t="s">
         <v>443</v>
       </c>
       <c r="D224" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5377,13 +5425,13 @@
         <v>325</v>
       </c>
       <c r="B225" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C225" t="s">
         <v>443</v>
       </c>
       <c r="D225" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5391,13 +5439,13 @@
         <v>325</v>
       </c>
       <c r="B226" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C226" t="s">
         <v>443</v>
       </c>
       <c r="D226" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5405,13 +5453,13 @@
         <v>325</v>
       </c>
       <c r="B227" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C227" t="s">
         <v>443</v>
       </c>
       <c r="D227" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5419,13 +5467,13 @@
         <v>325</v>
       </c>
       <c r="B228" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C228" t="s">
         <v>443</v>
       </c>
       <c r="D228" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5433,13 +5481,13 @@
         <v>325</v>
       </c>
       <c r="B229" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C229" t="s">
         <v>443</v>
       </c>
       <c r="D229" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5447,13 +5495,13 @@
         <v>325</v>
       </c>
       <c r="B230" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C230" t="s">
         <v>443</v>
       </c>
       <c r="D230" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5461,13 +5509,13 @@
         <v>325</v>
       </c>
       <c r="B231" t="s">
-        <v>462</v>
+        <v>341</v>
       </c>
       <c r="C231" t="s">
         <v>443</v>
       </c>
       <c r="D231" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5475,13 +5523,13 @@
         <v>325</v>
       </c>
       <c r="B232" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C232" t="s">
         <v>443</v>
       </c>
       <c r="D232" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5489,13 +5537,13 @@
         <v>325</v>
       </c>
       <c r="B233" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C233" t="s">
         <v>443</v>
       </c>
       <c r="D233" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5503,13 +5551,13 @@
         <v>325</v>
       </c>
       <c r="B234" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C234" t="s">
         <v>443</v>
       </c>
       <c r="D234" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5517,69 +5565,69 @@
         <v>325</v>
       </c>
       <c r="B235" t="s">
-        <v>348</v>
+        <v>462</v>
       </c>
       <c r="C235" t="s">
         <v>443</v>
       </c>
       <c r="D235" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B236" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C236" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D236" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B237" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C237" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D237" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B238" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C238" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D238" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B239" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C239" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="D239" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5587,13 +5635,13 @@
         <v>349</v>
       </c>
       <c r="B240" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C240" t="s">
         <v>469</v>
       </c>
       <c r="D240" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5601,13 +5649,13 @@
         <v>349</v>
       </c>
       <c r="B241" t="s">
-        <v>509</v>
+        <v>351</v>
       </c>
       <c r="C241" t="s">
         <v>469</v>
       </c>
       <c r="D241" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5615,13 +5663,13 @@
         <v>349</v>
       </c>
       <c r="B242" t="s">
-        <v>512</v>
+        <v>352</v>
       </c>
       <c r="C242" t="s">
         <v>469</v>
       </c>
       <c r="D242" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5629,13 +5677,13 @@
         <v>349</v>
       </c>
       <c r="B243" t="s">
-        <v>513</v>
+        <v>353</v>
       </c>
       <c r="C243" t="s">
         <v>469</v>
       </c>
       <c r="D243" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5643,13 +5691,13 @@
         <v>349</v>
       </c>
       <c r="B244" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C244" t="s">
         <v>469</v>
       </c>
       <c r="D244" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5657,13 +5705,13 @@
         <v>349</v>
       </c>
       <c r="B245" t="s">
-        <v>356</v>
+        <v>509</v>
       </c>
       <c r="C245" t="s">
         <v>469</v>
       </c>
       <c r="D245" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5671,13 +5719,13 @@
         <v>349</v>
       </c>
       <c r="B246" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C246" t="s">
         <v>469</v>
       </c>
       <c r="D246" t="s">
-        <v>241</v>
+        <v>514</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5685,13 +5733,13 @@
         <v>349</v>
       </c>
       <c r="B247" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
       <c r="C247" t="s">
         <v>469</v>
       </c>
       <c r="D247" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5699,13 +5747,13 @@
         <v>349</v>
       </c>
       <c r="B248" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C248" t="s">
         <v>469</v>
       </c>
       <c r="D248" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5713,13 +5761,13 @@
         <v>349</v>
       </c>
       <c r="B249" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C249" t="s">
         <v>469</v>
       </c>
       <c r="D249" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5727,13 +5775,13 @@
         <v>349</v>
       </c>
       <c r="B250" t="s">
-        <v>360</v>
+        <v>511</v>
       </c>
       <c r="C250" t="s">
         <v>469</v>
       </c>
       <c r="D250" t="s">
-        <v>479</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5741,13 +5789,13 @@
         <v>349</v>
       </c>
       <c r="B251" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C251" t="s">
         <v>469</v>
       </c>
       <c r="D251" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5755,13 +5803,13 @@
         <v>349</v>
       </c>
       <c r="B252" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C252" t="s">
         <v>469</v>
       </c>
       <c r="D252" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5769,13 +5817,13 @@
         <v>349</v>
       </c>
       <c r="B253" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C253" t="s">
         <v>469</v>
       </c>
       <c r="D253" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5783,13 +5831,13 @@
         <v>349</v>
       </c>
       <c r="B254" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C254" t="s">
         <v>469</v>
       </c>
       <c r="D254" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5797,13 +5845,13 @@
         <v>349</v>
       </c>
       <c r="B255" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C255" t="s">
         <v>469</v>
       </c>
       <c r="D255" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5811,13 +5859,13 @@
         <v>349</v>
       </c>
       <c r="B256" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C256" t="s">
         <v>469</v>
       </c>
       <c r="D256" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5825,13 +5873,13 @@
         <v>349</v>
       </c>
       <c r="B257" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C257" t="s">
         <v>469</v>
       </c>
       <c r="D257" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5839,13 +5887,13 @@
         <v>349</v>
       </c>
       <c r="B258" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C258" t="s">
         <v>469</v>
       </c>
       <c r="D258" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5853,13 +5901,13 @@
         <v>349</v>
       </c>
       <c r="B259" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C259" t="s">
         <v>469</v>
       </c>
       <c r="D259" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5867,41 +5915,125 @@
         <v>349</v>
       </c>
       <c r="B260" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C260" t="s">
         <v>469</v>
       </c>
       <c r="D260" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B261" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C261" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="D261" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
+        <v>349</v>
+      </c>
+      <c r="B262" t="s">
+        <v>368</v>
+      </c>
+      <c r="C262" t="s">
+        <v>469</v>
+      </c>
+      <c r="D262" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>349</v>
+      </c>
+      <c r="B263" t="s">
+        <v>369</v>
+      </c>
+      <c r="C263" t="s">
+        <v>469</v>
+      </c>
+      <c r="D263" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>349</v>
+      </c>
+      <c r="B264" t="s">
+        <v>370</v>
+      </c>
+      <c r="C264" t="s">
+        <v>469</v>
+      </c>
+      <c r="D264" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
         <v>371</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B265" t="s">
+        <v>372</v>
+      </c>
+      <c r="C265" t="s">
+        <v>490</v>
+      </c>
+      <c r="D265" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>371</v>
+      </c>
+      <c r="B266" t="s">
         <v>373</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C266" t="s">
         <v>490</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D266" t="s">
         <v>492</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>371</v>
+      </c>
+      <c r="B267" t="s">
+        <v>524</v>
+      </c>
+      <c r="C267" t="s">
+        <v>490</v>
+      </c>
+      <c r="D267" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>371</v>
+      </c>
+      <c r="B268" t="s">
+        <v>525</v>
+      </c>
+      <c r="C268" t="s">
+        <v>490</v>
+      </c>
+      <c r="D268" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/kor2eng.xlsx
+++ b/kor2eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/south-korea-election/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A7F256-D151-7946-BE22-DEB12624704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DC460-80C0-B944-9BB7-7EE09D0D96BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19080" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{485E5265-5BD5-BA4D-8DB3-B0C0895E5122}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="546">
   <si>
     <t>종로구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,1422 +493,1495 @@
     <t>시흥시</t>
   </si>
   <si>
+    <t>하남시</t>
+  </si>
+  <si>
+    <t>파주시</t>
+  </si>
+  <si>
+    <t>여주시</t>
+  </si>
+  <si>
+    <t>이천시</t>
+  </si>
+  <si>
+    <t>용인시처인구</t>
+  </si>
+  <si>
+    <t>용인시수지구</t>
+  </si>
+  <si>
+    <t>용인시기흥구</t>
+  </si>
+  <si>
+    <t>안성시</t>
+  </si>
+  <si>
+    <t>김포시</t>
+  </si>
+  <si>
+    <t>광주시</t>
+  </si>
+  <si>
+    <t>포천시</t>
+  </si>
+  <si>
+    <t>연천군</t>
+  </si>
+  <si>
+    <t>양평군</t>
+  </si>
+  <si>
+    <t>가평군</t>
+  </si>
+  <si>
+    <t>경기도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천시</t>
+  </si>
+  <si>
+    <t>원주시</t>
+  </si>
+  <si>
+    <t>강릉시</t>
+  </si>
+  <si>
+    <t>동해시</t>
+  </si>
+  <si>
+    <t>삼척시</t>
+  </si>
+  <si>
+    <t>태백시</t>
+  </si>
+  <si>
+    <t>정선군</t>
+  </si>
+  <si>
+    <t>속초시</t>
+  </si>
+  <si>
+    <t>고성군</t>
+  </si>
+  <si>
+    <t>양양군</t>
+  </si>
+  <si>
+    <t>인제군</t>
+  </si>
+  <si>
+    <t>홍천군</t>
+  </si>
+  <si>
+    <t>횡성군</t>
+  </si>
+  <si>
+    <t>영월군</t>
+  </si>
+  <si>
+    <t>평창군</t>
+  </si>
+  <si>
+    <t>화천군</t>
+  </si>
+  <si>
+    <t>양구군</t>
+  </si>
+  <si>
+    <t>철원군</t>
+  </si>
+  <si>
+    <t>강원도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_province_kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_province_eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incheon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeonsu-gu</t>
+  </si>
+  <si>
+    <t>Namdong-gu</t>
+  </si>
+  <si>
+    <t>Bupyeong-gu</t>
+  </si>
+  <si>
+    <t>Gyeyang-gu</t>
+  </si>
+  <si>
+    <t>Ongjin-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ganghwa-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangsan-gu</t>
+  </si>
+  <si>
+    <t>Daejeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuseong-gu</t>
+  </si>
+  <si>
+    <t>Daedeok-gu</t>
+  </si>
+  <si>
+    <t>Ulsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ulju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sejong-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu_kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu_eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jangan-gu, Suwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeonggi-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwonseon-gu, Suwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paldal-gu, Suwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongtong-gu, Suwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sujeong-gu, Seongnam-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jungwon-gu, Seongnam-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bundang-gu, Seongnam-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uijeongbu-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manan-gu, Anyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dongan-gu, Anyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bucheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangmyeong-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyeongtaek-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dongducheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangnok-gu, Ansan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danwon-gu, Ansan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogyang-gu, Goyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ilsandong-gu, Goyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ilsanseo-gu, Goyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwacheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uiwang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guri-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namyangju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Osan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hwaseong-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siheung-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gunpo-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanam-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeoju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheoin-gu, Yongin-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suji-gu, Yongin-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anseong-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimpo-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pocheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeoncheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangpyeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gapyeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangwon-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chuncheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangneung-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donghae-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samcheok-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taebaek-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeongseon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giheung-gu, Yongin-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sokcho-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangyang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inje-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hongcheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoengseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongwol-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyeongchang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hwacheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yanggu-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheorwon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주시상당구</t>
+  </si>
+  <si>
+    <t>청주시서원구</t>
+  </si>
+  <si>
+    <t>청주시흥덕구</t>
+  </si>
+  <si>
+    <t>청주시청원구</t>
+  </si>
+  <si>
+    <t>충주시</t>
+  </si>
+  <si>
+    <t>제천시</t>
+  </si>
+  <si>
+    <t>단양군</t>
+  </si>
+  <si>
+    <t>영동군</t>
+  </si>
+  <si>
+    <t>보은군</t>
+  </si>
+  <si>
+    <t>옥천군</t>
+  </si>
+  <si>
+    <t>음성군</t>
+  </si>
+  <si>
+    <t>진천군</t>
+  </si>
+  <si>
+    <t>괴산군</t>
+  </si>
+  <si>
+    <t>증평군</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungcheongbuk-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangdang-gu, Cheongju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seowon-gu, Cheongju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안시서북구</t>
+  </si>
+  <si>
+    <t>천안시동남구</t>
+  </si>
+  <si>
+    <t>공주시</t>
+  </si>
+  <si>
+    <t>보령시</t>
+  </si>
+  <si>
+    <t>아산시</t>
+  </si>
+  <si>
+    <t>서산시</t>
+  </si>
+  <si>
+    <t>태안군</t>
+  </si>
+  <si>
+    <t>금산군</t>
+  </si>
+  <si>
+    <t>논산시</t>
+  </si>
+  <si>
+    <t>계룡시</t>
+  </si>
+  <si>
+    <t>당진시</t>
+  </si>
+  <si>
+    <t>부여군</t>
+  </si>
+  <si>
+    <t>서천군</t>
+  </si>
+  <si>
+    <t>홍성군</t>
+  </si>
+  <si>
+    <t>청양군</t>
+  </si>
+  <si>
+    <t>예산군</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라북도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주시완산구</t>
+  </si>
+  <si>
+    <t>전주시덕진구</t>
+  </si>
+  <si>
+    <t>군산시</t>
+  </si>
+  <si>
+    <t>익산시</t>
+  </si>
+  <si>
+    <t>정읍시</t>
+  </si>
+  <si>
+    <t>남원시</t>
+  </si>
+  <si>
+    <t>김제시</t>
+  </si>
+  <si>
+    <t>완주군</t>
+  </si>
+  <si>
+    <t>진안군</t>
+  </si>
+  <si>
+    <t>무주군</t>
+  </si>
+  <si>
+    <t>장수군</t>
+  </si>
+  <si>
+    <t>임실군</t>
+  </si>
+  <si>
+    <t>순창군</t>
+  </si>
+  <si>
+    <t>고창군</t>
+  </si>
+  <si>
+    <t>부안군</t>
+  </si>
+  <si>
+    <t>목포시</t>
+  </si>
+  <si>
+    <t>여수시</t>
+  </si>
+  <si>
+    <t>순천시</t>
+  </si>
+  <si>
+    <t>나주시</t>
+  </si>
+  <si>
+    <t>광양시</t>
+  </si>
+  <si>
+    <t>담양군</t>
+  </si>
+  <si>
+    <t>장성군</t>
+  </si>
+  <si>
+    <t>곡성군</t>
+  </si>
+  <si>
+    <t>구례군</t>
+  </si>
+  <si>
+    <t>고흥군</t>
+  </si>
+  <si>
+    <t>보성군</t>
+  </si>
+  <si>
+    <t>화순군</t>
+  </si>
+  <si>
+    <t>장흥군</t>
+  </si>
+  <si>
+    <t>강진군</t>
+  </si>
+  <si>
+    <t>완도군</t>
+  </si>
+  <si>
+    <t>해남군</t>
+  </si>
+  <si>
+    <t>진도군</t>
+  </si>
+  <si>
+    <t>영암군</t>
+  </si>
+  <si>
+    <t>무안군</t>
+  </si>
+  <si>
+    <t>영광군</t>
+  </si>
+  <si>
+    <t>함평군</t>
+  </si>
+  <si>
+    <t>신안군</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항시북구</t>
+  </si>
+  <si>
+    <t>포항시남구</t>
+  </si>
+  <si>
+    <t>울릉군</t>
+  </si>
+  <si>
+    <t>경주시</t>
+  </si>
+  <si>
+    <t>김천시</t>
+  </si>
+  <si>
+    <t>안동시</t>
+  </si>
+  <si>
+    <t>구미시</t>
+  </si>
+  <si>
+    <t>영주시</t>
+  </si>
+  <si>
+    <t>영천시</t>
+  </si>
+  <si>
+    <t>상주시</t>
+  </si>
+  <si>
+    <t>문경시</t>
+  </si>
+  <si>
+    <t>예천군</t>
+  </si>
+  <si>
+    <t>경산시</t>
+  </si>
+  <si>
+    <t>청도군</t>
+  </si>
+  <si>
+    <t>고령군</t>
+  </si>
+  <si>
+    <t>성주군</t>
+  </si>
+  <si>
+    <t>칠곡군</t>
+  </si>
+  <si>
+    <t>군위군</t>
+  </si>
+  <si>
+    <t>의성군</t>
+  </si>
+  <si>
+    <t>영양군</t>
+  </si>
+  <si>
+    <t>영덕군</t>
+  </si>
+  <si>
+    <t>봉화군</t>
+  </si>
+  <si>
+    <t>울진군</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원시의창구</t>
+  </si>
+  <si>
+    <t>창원시성산구</t>
+  </si>
+  <si>
+    <t>창원시마산합포구</t>
+  </si>
+  <si>
+    <t>창원시마산회원구</t>
+  </si>
+  <si>
+    <t>창원시진해구</t>
+  </si>
+  <si>
+    <t>진주시</t>
+  </si>
+  <si>
+    <t>통영시</t>
+  </si>
+  <si>
+    <t>사천시</t>
+  </si>
+  <si>
+    <t>김해시</t>
+  </si>
+  <si>
+    <t>밀양시</t>
+  </si>
+  <si>
+    <t>거제시</t>
+  </si>
+  <si>
+    <t>의령군</t>
+  </si>
+  <si>
+    <t>함안군</t>
+  </si>
+  <si>
+    <t>창녕군</t>
+  </si>
+  <si>
+    <t>양산시</t>
+  </si>
+  <si>
+    <t>하동군</t>
+  </si>
+  <si>
+    <t>남해군</t>
+  </si>
+  <si>
+    <t>함양군</t>
+  </si>
+  <si>
+    <t>산청군</t>
+  </si>
+  <si>
+    <t>거창군</t>
+  </si>
+  <si>
+    <t>합천군</t>
+  </si>
+  <si>
+    <t>제주도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시</t>
+  </si>
+  <si>
+    <t>서귀포시</t>
+  </si>
+  <si>
+    <t>Heungdeok-gu, Cheongju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheongwon-gu, Cheongju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jecheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danyang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongdong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boeun-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okcheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eumseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jincheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goesan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeungpyeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungcheongnam-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seobuk-gu, Cheonan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dongnam-gu, Cheonan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gongju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boryeong-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seosan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taean-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geumsan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonsan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeryong-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangjin-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buyeo-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seocheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hongseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheongyang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yesan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wansan-gu, Jeonju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeollabuk-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deokjin-gu, Jeonju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gunsan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iksan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeongeup-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimje-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wanju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jangsu-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imsil-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunchang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gochang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeollanam-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mokpo-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeosu-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suncheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damyang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jangseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gokseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gurye-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goheung-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hwasun-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jangheung-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangjin-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wando-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haenam-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jindo-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongam-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeonggwang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hampyeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buk-gu, Pohang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongsangbuk-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nam-gu, Pohang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ulleung-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimcheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andong-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gumi-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongcheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mungyeong-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yecheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongsan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheongdo-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goryeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seongju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chilgok-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gunwi-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uiseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청송군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheongsong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongyang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongdeok-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonghwa-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uljin-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uichang-gu, Changwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongsangnam-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seongsan-gu, Changwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Masanhappo-gu, Changwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Masanhoewon-gu, Changwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinhae-gu, Changwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tongyeong-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimhae-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miryang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geoje-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uiryeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haman-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changnyeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangsan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namhae-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamyang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sancheong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geochang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hapcheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeju-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seogwipo-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청원군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheongwon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천시원미구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천시소사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천시오정구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonmi-gu, Bucheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sosa-gu, Bucheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ojeong-gu, Bucheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeoju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheonan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연기군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongi-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당진군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangjin-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changwon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고성군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마산시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Masan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinhae-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양시일산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ilsan-gu, Goyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yongin-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포천군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pocheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북제주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남제주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bukjeju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namjeju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>군포시</t>
-  </si>
-  <si>
-    <t>하남시</t>
-  </si>
-  <si>
-    <t>파주시</t>
-  </si>
-  <si>
-    <t>여주시</t>
-  </si>
-  <si>
-    <t>이천시</t>
-  </si>
-  <si>
-    <t>용인시처인구</t>
-  </si>
-  <si>
-    <t>용인시수지구</t>
-  </si>
-  <si>
-    <t>용인시기흥구</t>
-  </si>
-  <si>
-    <t>안성시</t>
-  </si>
-  <si>
-    <t>김포시</t>
-  </si>
-  <si>
-    <t>광주시</t>
-  </si>
-  <si>
-    <t>포천시</t>
-  </si>
-  <si>
-    <t>연천군</t>
-  </si>
-  <si>
-    <t>양평군</t>
-  </si>
-  <si>
-    <t>가평군</t>
-  </si>
-  <si>
-    <t>경기도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘천시</t>
-  </si>
-  <si>
-    <t>원주시</t>
-  </si>
-  <si>
-    <t>강릉시</t>
-  </si>
-  <si>
-    <t>동해시</t>
-  </si>
-  <si>
-    <t>삼척시</t>
-  </si>
-  <si>
-    <t>태백시</t>
-  </si>
-  <si>
-    <t>정선군</t>
-  </si>
-  <si>
-    <t>속초시</t>
-  </si>
-  <si>
-    <t>고성군</t>
-  </si>
-  <si>
-    <t>양양군</t>
-  </si>
-  <si>
-    <t>인제군</t>
-  </si>
-  <si>
-    <t>홍천군</t>
-  </si>
-  <si>
-    <t>횡성군</t>
-  </si>
-  <si>
-    <t>영월군</t>
-  </si>
-  <si>
-    <t>평창군</t>
-  </si>
-  <si>
-    <t>화천군</t>
-  </si>
-  <si>
-    <t>양구군</t>
-  </si>
-  <si>
-    <t>철원군</t>
-  </si>
-  <si>
-    <t>강원도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_province_kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_province_eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incheon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeonsu-gu</t>
-  </si>
-  <si>
-    <t>Namdong-gu</t>
-  </si>
-  <si>
-    <t>Bupyeong-gu</t>
-  </si>
-  <si>
-    <t>Gyeyang-gu</t>
-  </si>
-  <si>
-    <t>Ongjin-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ganghwa-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangsan-gu</t>
-  </si>
-  <si>
-    <t>Daejeon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yuseong-gu</t>
-  </si>
-  <si>
-    <t>Daedeok-gu</t>
-  </si>
-  <si>
-    <t>Ulsan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ulju-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sejong-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gu_kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gu_eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jangan-gu, Suwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gyeonggi-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwonseon-gu, Suwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paldal-gu, Suwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongtong-gu, Suwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sujeong-gu, Seongnam-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jungwon-gu, Seongnam-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bundang-gu, Seongnam-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uijeongbu-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manan-gu, Anyang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dongan-gu, Anyang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bucheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangmyeong-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pyeongtaek-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yangju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dongducheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangnok-gu, Ansan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danwon-gu, Ansan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogyang-gu, Goyang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ilsandong-gu, Goyang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ilsanseo-gu, Goyang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwacheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uiwang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guri-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namyangju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Osan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hwaseong-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Siheung-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gunpo-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanam-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeoju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheoin-gu, Yongin-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suji-gu, Yongin-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anseong-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gimpo-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pocheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeoncheon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yangpyeong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gapyeong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gangwon-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chuncheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wonju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gangneung-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Donghae-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samcheok-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taebaek-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeongseon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Giheung-gu, Yongin-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sokcho-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goseong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yangyang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inje-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hongcheon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hoengseong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongwol-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pyeongchang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hwacheon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yanggu-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheorwon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청주시상당구</t>
-  </si>
-  <si>
-    <t>청주시서원구</t>
-  </si>
-  <si>
-    <t>청주시흥덕구</t>
-  </si>
-  <si>
-    <t>청주시청원구</t>
-  </si>
-  <si>
-    <t>충주시</t>
-  </si>
-  <si>
-    <t>제천시</t>
-  </si>
-  <si>
-    <t>단양군</t>
-  </si>
-  <si>
-    <t>영동군</t>
-  </si>
-  <si>
-    <t>보은군</t>
-  </si>
-  <si>
-    <t>옥천군</t>
-  </si>
-  <si>
-    <t>음성군</t>
-  </si>
-  <si>
-    <t>진천군</t>
-  </si>
-  <si>
-    <t>괴산군</t>
-  </si>
-  <si>
-    <t>증평군</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chungcheongbuk-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangdang-gu, Cheongju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seowon-gu, Cheongju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천안시서북구</t>
-  </si>
-  <si>
-    <t>천안시동남구</t>
-  </si>
-  <si>
-    <t>공주시</t>
-  </si>
-  <si>
-    <t>보령시</t>
-  </si>
-  <si>
-    <t>아산시</t>
-  </si>
-  <si>
-    <t>서산시</t>
-  </si>
-  <si>
-    <t>태안군</t>
-  </si>
-  <si>
-    <t>금산군</t>
-  </si>
-  <si>
-    <t>논산시</t>
-  </si>
-  <si>
-    <t>계룡시</t>
-  </si>
-  <si>
-    <t>당진시</t>
-  </si>
-  <si>
-    <t>부여군</t>
-  </si>
-  <si>
-    <t>서천군</t>
-  </si>
-  <si>
-    <t>홍성군</t>
-  </si>
-  <si>
-    <t>청양군</t>
-  </si>
-  <si>
-    <t>예산군</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라북도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주시완산구</t>
-  </si>
-  <si>
-    <t>전주시덕진구</t>
-  </si>
-  <si>
-    <t>군산시</t>
-  </si>
-  <si>
-    <t>익산시</t>
-  </si>
-  <si>
-    <t>정읍시</t>
-  </si>
-  <si>
-    <t>남원시</t>
-  </si>
-  <si>
-    <t>김제시</t>
-  </si>
-  <si>
-    <t>완주군</t>
-  </si>
-  <si>
-    <t>진안군</t>
-  </si>
-  <si>
-    <t>무주군</t>
-  </si>
-  <si>
-    <t>장수군</t>
-  </si>
-  <si>
-    <t>임실군</t>
-  </si>
-  <si>
-    <t>순창군</t>
-  </si>
-  <si>
-    <t>고창군</t>
-  </si>
-  <si>
-    <t>부안군</t>
-  </si>
-  <si>
-    <t>목포시</t>
-  </si>
-  <si>
-    <t>여수시</t>
-  </si>
-  <si>
-    <t>순천시</t>
-  </si>
-  <si>
-    <t>나주시</t>
-  </si>
-  <si>
-    <t>광양시</t>
-  </si>
-  <si>
-    <t>담양군</t>
-  </si>
-  <si>
-    <t>장성군</t>
-  </si>
-  <si>
-    <t>곡성군</t>
-  </si>
-  <si>
-    <t>구례군</t>
-  </si>
-  <si>
-    <t>고흥군</t>
-  </si>
-  <si>
-    <t>보성군</t>
-  </si>
-  <si>
-    <t>화순군</t>
-  </si>
-  <si>
-    <t>장흥군</t>
-  </si>
-  <si>
-    <t>강진군</t>
-  </si>
-  <si>
-    <t>완도군</t>
-  </si>
-  <si>
-    <t>해남군</t>
-  </si>
-  <si>
-    <t>진도군</t>
-  </si>
-  <si>
-    <t>영암군</t>
-  </si>
-  <si>
-    <t>무안군</t>
-  </si>
-  <si>
-    <t>영광군</t>
-  </si>
-  <si>
-    <t>함평군</t>
-  </si>
-  <si>
-    <t>신안군</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경상북도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포항시북구</t>
-  </si>
-  <si>
-    <t>포항시남구</t>
-  </si>
-  <si>
-    <t>울릉군</t>
-  </si>
-  <si>
-    <t>경주시</t>
-  </si>
-  <si>
-    <t>김천시</t>
-  </si>
-  <si>
-    <t>안동시</t>
-  </si>
-  <si>
-    <t>구미시</t>
-  </si>
-  <si>
-    <t>영주시</t>
-  </si>
-  <si>
-    <t>영천시</t>
-  </si>
-  <si>
-    <t>상주시</t>
-  </si>
-  <si>
-    <t>문경시</t>
-  </si>
-  <si>
-    <t>예천군</t>
-  </si>
-  <si>
-    <t>경산시</t>
-  </si>
-  <si>
-    <t>청도군</t>
-  </si>
-  <si>
-    <t>고령군</t>
-  </si>
-  <si>
-    <t>성주군</t>
-  </si>
-  <si>
-    <t>칠곡군</t>
-  </si>
-  <si>
-    <t>군위군</t>
-  </si>
-  <si>
-    <t>의성군</t>
-  </si>
-  <si>
-    <t>영양군</t>
-  </si>
-  <si>
-    <t>영덕군</t>
-  </si>
-  <si>
-    <t>봉화군</t>
-  </si>
-  <si>
-    <t>울진군</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창원시의창구</t>
-  </si>
-  <si>
-    <t>창원시성산구</t>
-  </si>
-  <si>
-    <t>창원시마산합포구</t>
-  </si>
-  <si>
-    <t>창원시마산회원구</t>
-  </si>
-  <si>
-    <t>창원시진해구</t>
-  </si>
-  <si>
-    <t>진주시</t>
-  </si>
-  <si>
-    <t>통영시</t>
-  </si>
-  <si>
-    <t>사천시</t>
-  </si>
-  <si>
-    <t>김해시</t>
-  </si>
-  <si>
-    <t>밀양시</t>
-  </si>
-  <si>
-    <t>거제시</t>
-  </si>
-  <si>
-    <t>의령군</t>
-  </si>
-  <si>
-    <t>함안군</t>
-  </si>
-  <si>
-    <t>창녕군</t>
-  </si>
-  <si>
-    <t>양산시</t>
-  </si>
-  <si>
-    <t>하동군</t>
-  </si>
-  <si>
-    <t>남해군</t>
-  </si>
-  <si>
-    <t>함양군</t>
-  </si>
-  <si>
-    <t>산청군</t>
-  </si>
-  <si>
-    <t>거창군</t>
-  </si>
-  <si>
-    <t>합천군</t>
-  </si>
-  <si>
-    <t>제주도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주시</t>
-  </si>
-  <si>
-    <t>서귀포시</t>
-  </si>
-  <si>
-    <t>Heungdeok-gu, Cheongju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheongwon-gu, Cheongju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chungju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jecheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danyang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongdong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boeun-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Okcheon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eumseong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jincheon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goesan-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeungpyeong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chungcheongnam-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seobuk-gu, Cheonan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dongnam-gu, Cheonan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gongju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boryeong-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seosan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taean-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geumsan-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nonsan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gyeryong-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangjin-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buyeo-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seocheon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hongseong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheongyang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yesan-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wansan-gu, Jeonju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeollabuk-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deokjin-gu, Jeonju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gunsan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iksan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeongeup-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gimje-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wanju-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinan-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muju-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jangsu-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imsil-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunchang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gochang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buan-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeollanam-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mokpo-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeosu-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suncheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangyang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damyang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jangseong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gokseong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gurye-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goheung-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boseong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hwasun-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jangheung-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gangjin-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wando-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haenam-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jindo-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongam-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muan-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeonggwang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hampyeong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sinan-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buk-gu, Pohang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gyeongsangbuk-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nam-gu, Pohang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ulleung-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gyeongju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gimcheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andong-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gumi-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongcheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mungyeong-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yecheon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gyeongsan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheongdo-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goryeong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seongju-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chilgok-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gunwi-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uiseong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청송군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheongsong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongyang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongdeok-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bonghwa-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uljin-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uichang-gu, Changwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gyeongsangnam-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seongsan-gu, Changwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Masanhappo-gu, Changwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Masanhoewon-gu, Changwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinhae-gu, Changwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tongyeong-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sacheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gimhae-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miryang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geoje-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uiryeong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haman-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changnyeong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yangsan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namhae-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamyang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sancheong-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geochang-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hapcheon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeju-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeju-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seogwipo-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청원군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheongwon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부천시원미구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부천시소사구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부천시오정구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wonmi-gu, Bucheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sosa-gu, Bucheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ojeong-gu, Bucheon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여주군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeoju-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천안시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheonan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연기군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeongi-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당진군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangjin-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창원시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changwon-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고성군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마산시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진해시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Masan-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinhae-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양주군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yangju-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양시일산구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ilsan-gu, Goyang-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용인시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yongin-si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포천군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pocheon-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북제주군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남제주군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bukjeju-gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namjeju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hwaseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김포군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimpo-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anseong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마산시회원구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마산시합포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happo-gu, Masan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoewon-gu, Masan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여천시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여천군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeocheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeocheon-gun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2273,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7418C56A-0A02-6E49-BE92-F2987AC8A519}">
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D269" sqref="D269"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2286,16 +2359,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>187</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2992,7 +3065,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
@@ -3006,7 +3079,7 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
         <v>76</v>
@@ -3020,7 +3093,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>
@@ -3034,10 +3107,10 @@
         <v>93</v>
       </c>
       <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
         <v>172</v>
-      </c>
-      <c r="D54" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3048,10 +3121,10 @@
         <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3062,10 +3135,10 @@
         <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3076,10 +3149,10 @@
         <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3090,7 +3163,7 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
@@ -3104,10 +3177,10 @@
         <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3118,10 +3191,10 @@
         <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3132,7 +3205,7 @@
         <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
@@ -3146,7 +3219,7 @@
         <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
         <v>75</v>
@@ -3160,7 +3233,7 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" t="s">
         <v>80</v>
@@ -3174,7 +3247,7 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
         <v>81</v>
@@ -3188,10 +3261,10 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" t="s">
         <v>179</v>
-      </c>
-      <c r="D65" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3202,7 +3275,7 @@
         <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
         <v>76</v>
@@ -3216,7 +3289,7 @@
         <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
@@ -3230,7 +3303,7 @@
         <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
         <v>75</v>
@@ -3244,10 +3317,10 @@
         <v>102</v>
       </c>
       <c r="C69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" t="s">
         <v>181</v>
-      </c>
-      <c r="D69" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3258,10 +3331,10 @@
         <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3272,7 +3345,7 @@
         <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
@@ -3286,7 +3359,7 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
         <v>80</v>
@@ -3300,7 +3373,7 @@
         <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
@@ -3314,7 +3387,7 @@
         <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
         <v>81</v>
@@ -3328,10 +3401,10 @@
         <v>105</v>
       </c>
       <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" t="s">
         <v>184</v>
-      </c>
-      <c r="D75" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3342,2698 +3415,2824 @@
         <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
         <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
         <v>109</v>
       </c>
       <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
         <v>190</v>
-      </c>
-      <c r="D78" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
         <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
         <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
         <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
         <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
         <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B84" t="s">
         <v>115</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B85" t="s">
         <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
         <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
         <v>118</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
         <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
         <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
         <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
+        <v>515</v>
+      </c>
+      <c r="C94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" t="s">
         <v>516</v>
-      </c>
-      <c r="C94" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
         <v>122</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
         <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
         <v>124</v>
       </c>
       <c r="C97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>528</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D99" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>518</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D101" t="s">
-        <v>519</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>517</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D103" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D105" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D106" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D107" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>530</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>217</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>529</v>
       </c>
       <c r="C111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>501</v>
+        <v>136</v>
       </c>
       <c r="C113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D113" t="s">
-        <v>502</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="C115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>222</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D117" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D118" t="s">
-        <v>521</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D119" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
       <c r="C120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D120" t="s">
-        <v>225</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D121" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>536</v>
       </c>
       <c r="C122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D122" t="s">
-        <v>227</v>
+        <v>537</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>522</v>
+        <v>143</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D123" t="s">
-        <v>523</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>534</v>
       </c>
       <c r="C124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>535</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>532</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>230</v>
+        <v>533</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D127" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>521</v>
       </c>
       <c r="C128" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D128" t="s">
-        <v>233</v>
+        <v>522</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D129" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C130" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D130" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C131" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
+        <v>230</v>
+      </c>
+      <c r="D132" t="s">
         <v>231</v>
-      </c>
-      <c r="D132" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C133" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D133" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D134" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C135" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D135" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D136" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C137" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D137" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C138" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D138" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C139" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C140" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D140" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D141" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C142" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D142" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C143" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D143" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D144" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="B145" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="C145" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D145" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="C146" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D146" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="C147" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D147" t="s">
-        <v>374</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D148" t="s">
-        <v>375</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>493</v>
+        <v>167</v>
       </c>
       <c r="C149" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D149" t="s">
-        <v>494</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
+        <v>264</v>
+      </c>
+      <c r="B150" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" t="s">
         <v>265</v>
       </c>
-      <c r="B150" t="s">
-        <v>255</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>266</v>
-      </c>
-      <c r="D150" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
+        <v>264</v>
+      </c>
+      <c r="B151" t="s">
+        <v>251</v>
+      </c>
+      <c r="C151" t="s">
         <v>265</v>
       </c>
-      <c r="B151" t="s">
-        <v>256</v>
-      </c>
-      <c r="C151" t="s">
-        <v>266</v>
-      </c>
       <c r="D151" t="s">
-        <v>377</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
+        <v>264</v>
+      </c>
+      <c r="B152" t="s">
+        <v>252</v>
+      </c>
+      <c r="C152" t="s">
         <v>265</v>
       </c>
-      <c r="B152" t="s">
-        <v>257</v>
-      </c>
-      <c r="C152" t="s">
-        <v>266</v>
-      </c>
       <c r="D152" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
+        <v>264</v>
+      </c>
+      <c r="B153" t="s">
+        <v>253</v>
+      </c>
+      <c r="C153" t="s">
         <v>265</v>
       </c>
-      <c r="B153" t="s">
-        <v>258</v>
-      </c>
-      <c r="C153" t="s">
-        <v>266</v>
-      </c>
       <c r="D153" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
+        <v>264</v>
+      </c>
+      <c r="B154" t="s">
+        <v>492</v>
+      </c>
+      <c r="C154" t="s">
         <v>265</v>
       </c>
-      <c r="B154" t="s">
-        <v>259</v>
-      </c>
-      <c r="C154" t="s">
-        <v>266</v>
-      </c>
       <c r="D154" t="s">
-        <v>380</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
+        <v>264</v>
+      </c>
+      <c r="B155" t="s">
+        <v>254</v>
+      </c>
+      <c r="C155" t="s">
         <v>265</v>
       </c>
-      <c r="B155" t="s">
-        <v>260</v>
-      </c>
-      <c r="C155" t="s">
-        <v>266</v>
-      </c>
       <c r="D155" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
+        <v>264</v>
+      </c>
+      <c r="B156" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" t="s">
         <v>265</v>
       </c>
-      <c r="B156" t="s">
-        <v>261</v>
-      </c>
-      <c r="C156" t="s">
-        <v>266</v>
-      </c>
       <c r="D156" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
+        <v>264</v>
+      </c>
+      <c r="B157" t="s">
+        <v>256</v>
+      </c>
+      <c r="C157" t="s">
         <v>265</v>
       </c>
-      <c r="B157" t="s">
-        <v>262</v>
-      </c>
-      <c r="C157" t="s">
-        <v>266</v>
-      </c>
       <c r="D157" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
+        <v>264</v>
+      </c>
+      <c r="B158" t="s">
+        <v>257</v>
+      </c>
+      <c r="C158" t="s">
         <v>265</v>
       </c>
-      <c r="B158" t="s">
-        <v>263</v>
-      </c>
-      <c r="C158" t="s">
-        <v>266</v>
-      </c>
       <c r="D158" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
+        <v>264</v>
+      </c>
+      <c r="B159" t="s">
+        <v>258</v>
+      </c>
+      <c r="C159" t="s">
         <v>265</v>
       </c>
-      <c r="B159" t="s">
-        <v>264</v>
-      </c>
-      <c r="C159" t="s">
-        <v>266</v>
-      </c>
       <c r="D159" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C160" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="D160" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B161" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C161" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="D161" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B162" t="s">
-        <v>503</v>
+        <v>261</v>
       </c>
       <c r="C162" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="D162" t="s">
-        <v>504</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B163" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C163" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="D163" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C164" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="D164" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B165" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C165" t="s">
+        <v>385</v>
+      </c>
+      <c r="D165" t="s">
         <v>386</v>
-      </c>
-      <c r="D165" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C166" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D166" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B167" t="s">
-        <v>275</v>
+        <v>502</v>
       </c>
       <c r="C167" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D167" t="s">
-        <v>393</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B168" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C168" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D168" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B169" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C169" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D169" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B170" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C170" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D170" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B171" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D171" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B172" t="s">
-        <v>507</v>
+        <v>274</v>
       </c>
       <c r="C172" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D172" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B173" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C173" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D173" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B174" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C174" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D174" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B175" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C175" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D175" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B176" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C176" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D176" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
-        <v>284</v>
+        <v>506</v>
       </c>
       <c r="C177" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D177" t="s">
-        <v>402</v>
+        <v>507</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
-        <v>505</v>
+        <v>279</v>
       </c>
       <c r="C178" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D178" t="s">
-        <v>506</v>
+        <v>397</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B179" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C179" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D179" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B180" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C180" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D180" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B181" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C181" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D181" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B182" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C182" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D182" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
-        <v>291</v>
+        <v>504</v>
       </c>
       <c r="C183" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D183" t="s">
-        <v>408</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
+        <v>285</v>
+      </c>
+      <c r="B184" t="s">
         <v>286</v>
       </c>
-      <c r="B184" t="s">
-        <v>292</v>
-      </c>
       <c r="C184" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D184" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B185" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C185" t="s">
+        <v>403</v>
+      </c>
+      <c r="D185" t="s">
         <v>404</v>
-      </c>
-      <c r="D185" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B186" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C186" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D186" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B187" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C187" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D187" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C188" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D188" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B189" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C189" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D189" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C190" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D190" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B191" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C191" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D191" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B192" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C192" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D192" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B193" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C193" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D193" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C194" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D194" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C195" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D195" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B196" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C196" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D196" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B197" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C197" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D197" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C198" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D198" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B199" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C199" t="s">
+        <v>418</v>
+      </c>
+      <c r="D199" t="s">
         <v>419</v>
-      </c>
-      <c r="D199" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B200" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C200" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D200" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B201" t="s">
-        <v>309</v>
+        <v>542</v>
       </c>
       <c r="C201" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D201" t="s">
-        <v>427</v>
+        <v>544</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B202" t="s">
-        <v>310</v>
+        <v>543</v>
       </c>
       <c r="C202" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D202" t="s">
-        <v>428</v>
+        <v>545</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B203" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C203" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D203" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B204" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C204" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D204" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B205" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C205" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D205" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B206" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C206" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D206" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B207" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C207" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D207" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B208" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C208" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D208" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B209" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C209" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D209" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B210" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C210" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D210" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B211" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C211" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D211" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B212" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C212" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D212" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B213" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C213" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D213" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B214" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C214" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D214" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B215" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C215" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D215" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B216" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C216" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D216" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B217" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C217" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D217" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B218" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C218" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D218" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B219" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C219" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D219" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B220" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C220" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D220" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B221" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C221" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D221" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B222" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C222" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D222" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
+        <v>324</v>
+      </c>
+      <c r="B223" t="s">
         <v>325</v>
       </c>
-      <c r="B223" t="s">
-        <v>333</v>
-      </c>
       <c r="C223" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D223" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B224" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C224" t="s">
+        <v>442</v>
+      </c>
+      <c r="D224" t="s">
         <v>443</v>
-      </c>
-      <c r="D224" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B225" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C225" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D225" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B226" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C226" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D226" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B227" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C227" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D227" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B228" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C228" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D228" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B229" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C229" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D229" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B230" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C230" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D230" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B231" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C231" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D231" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B232" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C232" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D232" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B233" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C233" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D233" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B234" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C234" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D234" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B235" t="s">
-        <v>462</v>
+        <v>337</v>
       </c>
       <c r="C235" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D235" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B236" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C236" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D236" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B237" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C237" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D237" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B238" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C238" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D238" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B239" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C239" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D239" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B240" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C240" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D240" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B241" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C241" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D241" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B242" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
       <c r="C242" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D242" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B243" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C243" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D243" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B244" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C244" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D244" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B245" t="s">
-        <v>509</v>
+        <v>346</v>
       </c>
       <c r="C245" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D245" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B246" t="s">
-        <v>512</v>
+        <v>347</v>
       </c>
       <c r="C246" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D246" t="s">
-        <v>514</v>
+        <v>466</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
+        <v>348</v>
+      </c>
+      <c r="B247" t="s">
         <v>349</v>
       </c>
-      <c r="B247" t="s">
-        <v>513</v>
-      </c>
       <c r="C247" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D247" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B248" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C248" t="s">
+        <v>468</v>
+      </c>
+      <c r="D248" t="s">
         <v>469</v>
-      </c>
-      <c r="D248" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B249" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C249" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D249" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B250" t="s">
-        <v>511</v>
+        <v>352</v>
       </c>
       <c r="C250" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D250" t="s">
-        <v>241</v>
+        <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B251" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C251" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D251" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B252" t="s">
-        <v>358</v>
+        <v>508</v>
       </c>
       <c r="C252" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D252" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B253" t="s">
-        <v>359</v>
+        <v>511</v>
       </c>
       <c r="C253" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D253" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B254" t="s">
-        <v>360</v>
+        <v>538</v>
       </c>
       <c r="C254" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D254" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B255" t="s">
-        <v>361</v>
+        <v>539</v>
       </c>
       <c r="C255" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D255" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B256" t="s">
-        <v>362</v>
+        <v>512</v>
       </c>
       <c r="C256" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D256" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B257" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C257" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D257" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B258" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C258" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D258" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B259" t="s">
-        <v>365</v>
+        <v>510</v>
       </c>
       <c r="C259" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D259" t="s">
-        <v>484</v>
+        <v>240</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B260" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C260" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D260" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B261" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C261" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D261" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B262" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C262" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D262" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B263" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C263" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D263" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B264" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C264" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D264" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B265" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C265" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D265" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B266" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C266" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D266" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B267" t="s">
-        <v>524</v>
+        <v>363</v>
       </c>
       <c r="C267" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D267" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
+        <v>348</v>
+      </c>
+      <c r="B268" t="s">
+        <v>364</v>
+      </c>
+      <c r="C268" t="s">
+        <v>468</v>
+      </c>
+      <c r="D268" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>348</v>
+      </c>
+      <c r="B269" t="s">
+        <v>365</v>
+      </c>
+      <c r="C269" t="s">
+        <v>468</v>
+      </c>
+      <c r="D269" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>348</v>
+      </c>
+      <c r="B270" t="s">
+        <v>366</v>
+      </c>
+      <c r="C270" t="s">
+        <v>468</v>
+      </c>
+      <c r="D270" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>348</v>
+      </c>
+      <c r="B271" t="s">
+        <v>367</v>
+      </c>
+      <c r="C271" t="s">
+        <v>468</v>
+      </c>
+      <c r="D271" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>348</v>
+      </c>
+      <c r="B272" t="s">
+        <v>368</v>
+      </c>
+      <c r="C272" t="s">
+        <v>468</v>
+      </c>
+      <c r="D272" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>348</v>
+      </c>
+      <c r="B273" t="s">
+        <v>369</v>
+      </c>
+      <c r="C273" t="s">
+        <v>468</v>
+      </c>
+      <c r="D273" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>370</v>
+      </c>
+      <c r="B274" t="s">
         <v>371</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C274" t="s">
+        <v>489</v>
+      </c>
+      <c r="D274" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>370</v>
+      </c>
+      <c r="B275" t="s">
+        <v>372</v>
+      </c>
+      <c r="C275" t="s">
+        <v>489</v>
+      </c>
+      <c r="D275" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>370</v>
+      </c>
+      <c r="B276" t="s">
+        <v>523</v>
+      </c>
+      <c r="C276" t="s">
+        <v>489</v>
+      </c>
+      <c r="D276" t="s">
         <v>525</v>
       </c>
-      <c r="C268" t="s">
-        <v>490</v>
-      </c>
-      <c r="D268" t="s">
-        <v>527</v>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>370</v>
+      </c>
+      <c r="B277" t="s">
+        <v>524</v>
+      </c>
+      <c r="C277" t="s">
+        <v>489</v>
+      </c>
+      <c r="D277" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/kor2eng.xlsx
+++ b/kor2eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/south-korea-election/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SeungwooKang_1/Documents/GitHub/south-korea-election/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DC460-80C0-B944-9BB7-7EE09D0D96BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB99D96F-DCF6-4D4D-9F26-C508C847895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19080" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{485E5265-5BD5-BA4D-8DB3-B0C0895E5122}"/>
+    <workbookView xWindow="-20480" yWindow="900" windowWidth="19080" windowHeight="19540" xr2:uid="{485E5265-5BD5-BA4D-8DB3-B0C0895E5122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="676">
   <si>
     <t>종로구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1982,6 +1982,525 @@
   </si>
   <si>
     <t>Yeocheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheongju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제천군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jecheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중원군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jungwon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gongju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보령군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boryeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대천시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daecheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온양시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonsan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seosan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheonan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myungju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼척군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samcheok-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chuncheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천시중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천시남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jung-gu, Bucheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nam-gu, Bucheon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평택군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송탄시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyeongtaek-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Songtan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남양주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namyangju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미금시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Migeum-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이천군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yongin-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pohang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영일군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youngil-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금릉군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geumreung-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영풍군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongpung-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영천군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongcheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문경군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mungyeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점촌시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeomchon-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달성군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seonsan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongsan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산시중구</t>
+  </si>
+  <si>
+    <t>울산시남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산시동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jung-gu, Ulsan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nam-gu, Ulsan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dong-gu, Ulsan-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changwon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통영군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충무시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungmu-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tongyeong-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사천군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacheon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천포시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samcheonpo-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김해군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimhae-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진양군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinyang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀양군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miryang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yangsan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ulsan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거제군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geoje-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jangseungpo-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장승포시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buk-gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iksan-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이리시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iri-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정읍군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정주시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jungju-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeongeup-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남원군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namwon-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김제군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimje-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥구군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okgu-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승주군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seungju-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광양군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동광양시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donggwangyang-si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangyang-gun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1989,7 +2508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2000,6 +2519,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -2028,9 +2555,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2346,14 +2879,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7418C56A-0A02-6E49-BE92-F2987AC8A519}">
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3053,7 +3587,7 @@
       <c r="C50" t="s">
         <v>89</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3104,13 +3638,13 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>652</v>
       </c>
       <c r="C54" t="s">
         <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3118,13 +3652,13 @@
         <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
         <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3132,13 +3666,13 @@
         <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
         <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3146,13 +3680,13 @@
         <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3160,13 +3694,13 @@
         <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
         <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3174,13 +3708,13 @@
         <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
         <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3188,27 +3722,27 @@
         <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
         <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3216,13 +3750,13 @@
         <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
         <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3230,13 +3764,13 @@
         <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
         <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3244,13 +3778,13 @@
         <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
         <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3258,27 +3792,27 @@
         <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
         <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3286,13 +3820,13 @@
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>180</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3300,13 +3834,13 @@
         <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
         <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3314,13 +3848,13 @@
         <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
         <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3328,27 +3862,27 @@
         <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
         <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3356,13 +3890,13 @@
         <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
         <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3370,13 +3904,13 @@
         <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
         <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3384,13 +3918,13 @@
         <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
         <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3398,41 +3932,41 @@
         <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3440,13 +3974,13 @@
         <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" t="s">
         <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3454,13 +3988,13 @@
         <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
         <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3468,13 +4002,13 @@
         <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
         <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3482,13 +4016,13 @@
         <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" t="s">
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3496,13 +4030,13 @@
         <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
         <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3510,13 +4044,13 @@
         <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
         <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3524,13 +4058,13 @@
         <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
         <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3538,13 +4072,13 @@
         <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
         <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3552,13 +4086,13 @@
         <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
         <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3566,13 +4100,13 @@
         <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
         <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3580,13 +4114,13 @@
         <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
         <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>497</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3594,13 +4128,13 @@
         <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>495</v>
+        <v>576</v>
       </c>
       <c r="C89" t="s">
         <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>498</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3608,13 +4142,13 @@
         <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>496</v>
+        <v>577</v>
       </c>
       <c r="C90" t="s">
         <v>189</v>
       </c>
       <c r="D90" t="s">
-        <v>499</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3622,13 +4156,13 @@
         <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="C91" t="s">
         <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>200</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3636,13 +4170,13 @@
         <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="C92" t="s">
         <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>201</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3650,13 +4184,13 @@
         <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="C93" t="s">
         <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>202</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3664,13 +4198,13 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>515</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
         <v>189</v>
       </c>
       <c r="D94" t="s">
-        <v>516</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3678,13 +4212,13 @@
         <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
         <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3692,13 +4226,13 @@
         <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>580</v>
       </c>
       <c r="C96" t="s">
         <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>582</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3706,13 +4240,13 @@
         <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>581</v>
       </c>
       <c r="C97" t="s">
         <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>205</v>
+        <v>583</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3720,13 +4254,13 @@
         <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>527</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
         <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>528</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3734,13 +4268,13 @@
         <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>515</v>
       </c>
       <c r="C99" t="s">
         <v>189</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3748,13 +4282,13 @@
         <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C100" t="s">
         <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3762,13 +4296,13 @@
         <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C101" t="s">
         <v>189</v>
       </c>
       <c r="D101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3776,13 +4310,13 @@
         <v>149</v>
       </c>
       <c r="B102" t="s">
-        <v>517</v>
+        <v>124</v>
       </c>
       <c r="C102" t="s">
         <v>189</v>
       </c>
       <c r="D102" t="s">
-        <v>518</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3790,13 +4324,13 @@
         <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>527</v>
       </c>
       <c r="C103" t="s">
         <v>189</v>
       </c>
       <c r="D103" t="s">
-        <v>209</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3804,13 +4338,13 @@
         <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
         <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3818,13 +4352,13 @@
         <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
         <v>189</v>
       </c>
       <c r="D105" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3832,13 +4366,13 @@
         <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C106" t="s">
         <v>189</v>
       </c>
       <c r="D106" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3846,13 +4380,13 @@
         <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>517</v>
       </c>
       <c r="C107" t="s">
         <v>189</v>
       </c>
       <c r="D107" t="s">
-        <v>213</v>
+        <v>518</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3860,13 +4394,13 @@
         <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>590</v>
       </c>
       <c r="C108" t="s">
         <v>189</v>
       </c>
       <c r="D108" t="s">
-        <v>214</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3874,13 +4408,13 @@
         <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>530</v>
+        <v>128</v>
       </c>
       <c r="C109" t="s">
         <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3888,13 +4422,13 @@
         <v>149</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C110" t="s">
         <v>189</v>
       </c>
       <c r="D110" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3902,13 +4436,13 @@
         <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>529</v>
+        <v>130</v>
       </c>
       <c r="C111" t="s">
         <v>189</v>
       </c>
       <c r="D111" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3916,13 +4450,13 @@
         <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C112" t="s">
         <v>189</v>
       </c>
       <c r="D112" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3930,13 +4464,13 @@
         <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>584</v>
       </c>
       <c r="C113" t="s">
         <v>189</v>
       </c>
       <c r="D113" t="s">
-        <v>218</v>
+        <v>585</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3944,13 +4478,13 @@
         <v>149</v>
       </c>
       <c r="B114" t="s">
-        <v>137</v>
+        <v>586</v>
       </c>
       <c r="C114" t="s">
         <v>189</v>
       </c>
       <c r="D114" t="s">
-        <v>219</v>
+        <v>587</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3958,13 +4492,13 @@
         <v>149</v>
       </c>
       <c r="B115" t="s">
-        <v>500</v>
+        <v>132</v>
       </c>
       <c r="C115" t="s">
         <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>501</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3972,13 +4506,13 @@
         <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C116" t="s">
         <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3986,13 +4520,13 @@
         <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>530</v>
       </c>
       <c r="C117" t="s">
         <v>189</v>
       </c>
       <c r="D117" t="s">
-        <v>221</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4000,13 +4534,13 @@
         <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C118" t="s">
         <v>189</v>
       </c>
       <c r="D118" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4014,13 +4548,13 @@
         <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>529</v>
       </c>
       <c r="C119" t="s">
         <v>189</v>
       </c>
       <c r="D119" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4028,13 +4562,13 @@
         <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>519</v>
+        <v>135</v>
       </c>
       <c r="C120" t="s">
         <v>189</v>
       </c>
       <c r="D120" t="s">
-        <v>520</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4042,13 +4576,13 @@
         <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C121" t="s">
         <v>189</v>
       </c>
       <c r="D121" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4056,13 +4590,13 @@
         <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>536</v>
+        <v>588</v>
       </c>
       <c r="C122" t="s">
         <v>189</v>
       </c>
       <c r="D122" t="s">
-        <v>537</v>
+        <v>589</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4070,13 +4604,13 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C123" t="s">
         <v>189</v>
       </c>
       <c r="D123" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4084,13 +4618,13 @@
         <v>149</v>
       </c>
       <c r="B124" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="C124" t="s">
         <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4098,13 +4632,13 @@
         <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C125" t="s">
         <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4112,13 +4646,13 @@
         <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="C126" t="s">
         <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4126,13 +4660,13 @@
         <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C127" t="s">
         <v>189</v>
       </c>
       <c r="D127" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4140,13 +4674,13 @@
         <v>149</v>
       </c>
       <c r="B128" t="s">
-        <v>521</v>
+        <v>140</v>
       </c>
       <c r="C128" t="s">
         <v>189</v>
       </c>
       <c r="D128" t="s">
-        <v>522</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4154,13 +4688,13 @@
         <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C129" t="s">
         <v>189</v>
       </c>
       <c r="D129" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4168,13 +4702,13 @@
         <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>519</v>
       </c>
       <c r="C130" t="s">
         <v>189</v>
       </c>
       <c r="D130" t="s">
-        <v>228</v>
+        <v>520</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4182,195 +4716,195 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>594</v>
       </c>
       <c r="C131" t="s">
         <v>189</v>
       </c>
       <c r="D131" t="s">
-        <v>229</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C132" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D132" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>151</v>
+        <v>536</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D133" t="s">
-        <v>232</v>
+        <v>537</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C134" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>534</v>
       </c>
       <c r="C135" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D135" t="s">
-        <v>234</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D136" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>155</v>
+        <v>532</v>
       </c>
       <c r="C137" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D137" t="s">
-        <v>236</v>
+        <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>521</v>
       </c>
       <c r="C139" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D139" t="s">
-        <v>239</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D140" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C141" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D141" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C142" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D142" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C143" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D143" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>596</v>
       </c>
       <c r="C144" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D144" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4378,13 +4912,13 @@
         <v>168</v>
       </c>
       <c r="B145" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
         <v>230</v>
       </c>
       <c r="D145" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4392,13 +4926,13 @@
         <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>164</v>
+        <v>572</v>
       </c>
       <c r="C146" t="s">
         <v>230</v>
       </c>
       <c r="D146" t="s">
-        <v>246</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4406,13 +4940,13 @@
         <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
         <v>230</v>
       </c>
       <c r="D147" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4420,13 +4954,13 @@
         <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>166</v>
+        <v>574</v>
       </c>
       <c r="C148" t="s">
         <v>230</v>
       </c>
       <c r="D148" t="s">
-        <v>248</v>
+        <v>575</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4434,1804 +4968,2742 @@
         <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
         <v>230</v>
       </c>
       <c r="D149" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B150" t="s">
-        <v>250</v>
+        <v>568</v>
       </c>
       <c r="C150" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D150" t="s">
-        <v>266</v>
+        <v>569</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B151" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D151" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B152" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D152" t="s">
-        <v>373</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B153" t="s">
-        <v>253</v>
+        <v>570</v>
       </c>
       <c r="C153" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D153" t="s">
-        <v>374</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B154" t="s">
-        <v>492</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D154" t="s">
-        <v>493</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B155" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D155" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B156" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D156" t="s">
-        <v>376</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D157" t="s">
-        <v>377</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B158" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D158" t="s">
-        <v>378</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D159" t="s">
-        <v>379</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D160" t="s">
-        <v>380</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D161" t="s">
-        <v>381</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D162" t="s">
-        <v>382</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D163" t="s">
-        <v>383</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D164" t="s">
-        <v>384</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>385</v>
+        <v>230</v>
       </c>
       <c r="D165" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>385</v>
+        <v>230</v>
       </c>
       <c r="D166" t="s">
-        <v>387</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B167" t="s">
-        <v>502</v>
+        <v>250</v>
       </c>
       <c r="C167" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D167" t="s">
-        <v>503</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B168" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C168" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D168" t="s">
-        <v>388</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B169" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C169" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D169" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C170" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D170" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B171" t="s">
-        <v>273</v>
+        <v>546</v>
       </c>
       <c r="C171" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D171" t="s">
-        <v>391</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B172" t="s">
-        <v>274</v>
+        <v>492</v>
       </c>
       <c r="C172" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D172" t="s">
-        <v>392</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B173" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C173" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D173" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B174" t="s">
-        <v>276</v>
+        <v>550</v>
       </c>
       <c r="C174" t="s">
-        <v>385</v>
-      </c>
-      <c r="D174" t="s">
-        <v>394</v>
+        <v>265</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C175" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D175" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>548</v>
       </c>
       <c r="C176" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D176" t="s">
-        <v>396</v>
+        <v>549</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B177" t="s">
-        <v>506</v>
+        <v>256</v>
       </c>
       <c r="C177" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D177" t="s">
-        <v>507</v>
+        <v>377</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B178" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C178" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D178" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B179" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C179" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D179" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B180" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C180" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D180" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B181" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C181" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D181" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B182" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C182" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D182" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B183" t="s">
-        <v>504</v>
+        <v>262</v>
       </c>
       <c r="C183" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D183" t="s">
-        <v>505</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B184" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C184" t="s">
-        <v>403</v>
+        <v>265</v>
       </c>
       <c r="D184" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C185" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D185" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B186" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C186" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D186" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
-        <v>289</v>
+        <v>502</v>
       </c>
       <c r="C187" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D187" t="s">
-        <v>406</v>
+        <v>503</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>290</v>
+        <v>566</v>
       </c>
       <c r="C188" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D188" t="s">
-        <v>407</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B189" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C189" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D189" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B190" t="s">
-        <v>292</v>
+        <v>552</v>
       </c>
       <c r="C190" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D190" t="s">
-        <v>409</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B191" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C191" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D191" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B192" t="s">
-        <v>294</v>
+        <v>554</v>
       </c>
       <c r="C192" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D192" t="s">
-        <v>411</v>
+        <v>555</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
-        <v>295</v>
+        <v>556</v>
       </c>
       <c r="C193" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D193" t="s">
-        <v>412</v>
+        <v>557</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C194" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D194" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B195" t="s">
-        <v>297</v>
+        <v>559</v>
       </c>
       <c r="C195" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D195" t="s">
-        <v>414</v>
+        <v>558</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B196" t="s">
-        <v>298</v>
+        <v>560</v>
       </c>
       <c r="C196" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D196" t="s">
-        <v>415</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B197" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="C197" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D197" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>300</v>
+        <v>564</v>
       </c>
       <c r="C198" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D198" t="s">
-        <v>417</v>
+        <v>565</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B199" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="C199" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D199" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="C200" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D200" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B201" t="s">
-        <v>542</v>
+        <v>276</v>
       </c>
       <c r="C201" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D201" t="s">
-        <v>544</v>
+        <v>394</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B202" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="C202" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D202" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="C203" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D203" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B204" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C204" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D204" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B205" t="s">
-        <v>305</v>
+        <v>506</v>
       </c>
       <c r="C205" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D205" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="C206" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D206" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B207" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C207" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D207" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B208" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="C208" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D208" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B209" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="C209" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D209" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B210" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="C210" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D210" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B211" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="C211" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D211" t="s">
-        <v>429</v>
+        <v>505</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B212" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="C212" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D212" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B213" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="C213" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D213" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B214" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="C214" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D214" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B215" t="s">
-        <v>315</v>
+        <v>666</v>
       </c>
       <c r="C215" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D215" t="s">
-        <v>433</v>
+        <v>667</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B216" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C216" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D216" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B217" t="s">
-        <v>317</v>
+        <v>654</v>
       </c>
       <c r="C217" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D217" t="s">
-        <v>435</v>
+        <v>655</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B218" t="s">
-        <v>318</v>
+        <v>656</v>
       </c>
       <c r="C218" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D218" t="s">
-        <v>436</v>
+        <v>657</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B219" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="C219" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D219" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B220" t="s">
-        <v>320</v>
+        <v>658</v>
       </c>
       <c r="C220" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D220" t="s">
-        <v>438</v>
+        <v>661</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B221" t="s">
-        <v>321</v>
+        <v>659</v>
       </c>
       <c r="C221" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D221" t="s">
-        <v>439</v>
+        <v>660</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B222" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C222" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D222" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B223" t="s">
-        <v>325</v>
+        <v>662</v>
       </c>
       <c r="C223" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D223" t="s">
-        <v>441</v>
+        <v>663</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B224" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C224" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D224" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>327</v>
+        <v>664</v>
       </c>
       <c r="C225" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D225" t="s">
-        <v>444</v>
+        <v>665</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B226" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="C226" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D226" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B227" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C227" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D227" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B228" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="C228" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D228" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B229" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C229" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D229" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B230" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="C230" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D230" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B231" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C231" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D231" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B232" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="C232" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D232" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B233" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="C233" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D233" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B234" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="C234" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D234" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B235" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="C235" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D235" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B236" t="s">
-        <v>338</v>
+        <v>542</v>
       </c>
       <c r="C236" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D236" t="s">
-        <v>455</v>
+        <v>544</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B237" t="s">
-        <v>339</v>
+        <v>543</v>
       </c>
       <c r="C237" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D237" t="s">
-        <v>456</v>
+        <v>545</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B238" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="C238" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D238" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>341</v>
+        <v>670</v>
       </c>
       <c r="C239" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D239" t="s">
-        <v>458</v>
+        <v>671</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B240" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="C240" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D240" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B241" t="s">
-        <v>343</v>
+        <v>668</v>
       </c>
       <c r="C241" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D241" t="s">
-        <v>460</v>
+        <v>669</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B242" t="s">
-        <v>461</v>
+        <v>305</v>
       </c>
       <c r="C242" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D242" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B243" t="s">
-        <v>344</v>
+        <v>672</v>
       </c>
       <c r="C243" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D243" t="s">
-        <v>463</v>
+        <v>675</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B244" t="s">
-        <v>345</v>
+        <v>673</v>
       </c>
       <c r="C244" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D244" t="s">
-        <v>464</v>
+        <v>674</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B245" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C245" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D245" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B246" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="C246" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D246" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B247" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="C247" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D247" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B248" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="C248" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D248" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B249" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="C249" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D249" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B250" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="C250" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D250" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B251" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="C251" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D251" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B252" t="s">
-        <v>508</v>
+        <v>313</v>
       </c>
       <c r="C252" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D252" t="s">
-        <v>509</v>
+        <v>431</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B253" t="s">
-        <v>511</v>
+        <v>314</v>
       </c>
       <c r="C253" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D253" t="s">
-        <v>513</v>
+        <v>432</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B254" t="s">
-        <v>538</v>
+        <v>315</v>
       </c>
       <c r="C254" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D254" t="s">
-        <v>541</v>
+        <v>433</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B255" t="s">
-        <v>539</v>
+        <v>316</v>
       </c>
       <c r="C255" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D255" t="s">
-        <v>540</v>
+        <v>434</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B256" t="s">
-        <v>512</v>
+        <v>317</v>
       </c>
       <c r="C256" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D256" t="s">
-        <v>514</v>
+        <v>435</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B257" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="C257" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D257" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B258" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="C258" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D258" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B259" t="s">
-        <v>510</v>
+        <v>320</v>
       </c>
       <c r="C259" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D259" t="s">
-        <v>240</v>
+        <v>438</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B260" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C260" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D260" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B261" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="C261" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D261" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B262" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="C262" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D262" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B263" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="C263" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D263" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B264" t="s">
-        <v>360</v>
+        <v>597</v>
       </c>
       <c r="C264" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D264" t="s">
-        <v>479</v>
+        <v>598</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B265" t="s">
-        <v>361</v>
+        <v>599</v>
       </c>
       <c r="C265" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D265" t="s">
-        <v>480</v>
+        <v>600</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B266" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="C266" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D266" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B267" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="C267" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D267" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B268" t="s">
-        <v>364</v>
+        <v>618</v>
       </c>
       <c r="C268" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D268" t="s">
-        <v>483</v>
+        <v>619</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B269" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="C269" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D269" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B270" t="s">
-        <v>366</v>
+        <v>601</v>
       </c>
       <c r="C270" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D270" t="s">
-        <v>485</v>
+        <v>602</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B271" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="C271" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D271" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B272" t="s">
-        <v>368</v>
+        <v>616</v>
       </c>
       <c r="C272" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D272" t="s">
-        <v>487</v>
+        <v>617</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B273" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="C273" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D273" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="B274" t="s">
-        <v>371</v>
+        <v>614</v>
       </c>
       <c r="C274" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="D274" t="s">
-        <v>490</v>
+        <v>615</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="B275" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C275" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="D275" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="B276" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="C276" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="D276" t="s">
-        <v>525</v>
+        <v>604</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
+        <v>324</v>
+      </c>
+      <c r="B277" t="s">
+        <v>333</v>
+      </c>
+      <c r="C277" t="s">
+        <v>442</v>
+      </c>
+      <c r="D277" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>324</v>
+      </c>
+      <c r="B278" t="s">
+        <v>605</v>
+      </c>
+      <c r="C278" t="s">
+        <v>442</v>
+      </c>
+      <c r="D278" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>324</v>
+      </c>
+      <c r="B279" t="s">
+        <v>334</v>
+      </c>
+      <c r="C279" t="s">
+        <v>442</v>
+      </c>
+      <c r="D279" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>324</v>
+      </c>
+      <c r="B280" t="s">
+        <v>607</v>
+      </c>
+      <c r="C280" t="s">
+        <v>442</v>
+      </c>
+      <c r="D280" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>324</v>
+      </c>
+      <c r="B281" t="s">
+        <v>335</v>
+      </c>
+      <c r="C281" t="s">
+        <v>442</v>
+      </c>
+      <c r="D281" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>324</v>
+      </c>
+      <c r="B282" t="s">
+        <v>609</v>
+      </c>
+      <c r="C282" t="s">
+        <v>442</v>
+      </c>
+      <c r="D282" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>324</v>
+      </c>
+      <c r="B283" t="s">
+        <v>611</v>
+      </c>
+      <c r="C283" t="s">
+        <v>442</v>
+      </c>
+      <c r="D283" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>324</v>
+      </c>
+      <c r="B284" t="s">
+        <v>336</v>
+      </c>
+      <c r="C284" t="s">
+        <v>442</v>
+      </c>
+      <c r="D284" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>324</v>
+      </c>
+      <c r="B285" t="s">
+        <v>337</v>
+      </c>
+      <c r="C285" t="s">
+        <v>442</v>
+      </c>
+      <c r="D285" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>324</v>
+      </c>
+      <c r="B286" t="s">
+        <v>620</v>
+      </c>
+      <c r="C286" t="s">
+        <v>442</v>
+      </c>
+      <c r="D286" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>324</v>
+      </c>
+      <c r="B287" t="s">
+        <v>338</v>
+      </c>
+      <c r="C287" t="s">
+        <v>442</v>
+      </c>
+      <c r="D287" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>324</v>
+      </c>
+      <c r="B288" t="s">
+        <v>339</v>
+      </c>
+      <c r="C288" t="s">
+        <v>442</v>
+      </c>
+      <c r="D288" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>324</v>
+      </c>
+      <c r="B289" t="s">
+        <v>340</v>
+      </c>
+      <c r="C289" t="s">
+        <v>442</v>
+      </c>
+      <c r="D289" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>324</v>
+      </c>
+      <c r="B290" t="s">
+        <v>341</v>
+      </c>
+      <c r="C290" t="s">
+        <v>442</v>
+      </c>
+      <c r="D290" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>324</v>
+      </c>
+      <c r="B291" t="s">
+        <v>342</v>
+      </c>
+      <c r="C291" t="s">
+        <v>442</v>
+      </c>
+      <c r="D291" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>324</v>
+      </c>
+      <c r="B292" t="s">
+        <v>343</v>
+      </c>
+      <c r="C292" t="s">
+        <v>442</v>
+      </c>
+      <c r="D292" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>324</v>
+      </c>
+      <c r="B293" t="s">
+        <v>461</v>
+      </c>
+      <c r="C293" t="s">
+        <v>442</v>
+      </c>
+      <c r="D293" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>324</v>
+      </c>
+      <c r="B294" t="s">
+        <v>344</v>
+      </c>
+      <c r="C294" t="s">
+        <v>442</v>
+      </c>
+      <c r="D294" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>324</v>
+      </c>
+      <c r="B295" t="s">
+        <v>345</v>
+      </c>
+      <c r="C295" t="s">
+        <v>442</v>
+      </c>
+      <c r="D295" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>324</v>
+      </c>
+      <c r="B296" t="s">
+        <v>346</v>
+      </c>
+      <c r="C296" t="s">
+        <v>442</v>
+      </c>
+      <c r="D296" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>324</v>
+      </c>
+      <c r="B297" t="s">
+        <v>347</v>
+      </c>
+      <c r="C297" t="s">
+        <v>442</v>
+      </c>
+      <c r="D297" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>324</v>
+      </c>
+      <c r="B298" t="s">
+        <v>613</v>
+      </c>
+      <c r="C298" t="s">
+        <v>442</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>348</v>
+      </c>
+      <c r="B299" t="s">
+        <v>349</v>
+      </c>
+      <c r="C299" t="s">
+        <v>468</v>
+      </c>
+      <c r="D299" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>348</v>
+      </c>
+      <c r="B300" t="s">
+        <v>350</v>
+      </c>
+      <c r="C300" t="s">
+        <v>468</v>
+      </c>
+      <c r="D300" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>348</v>
+      </c>
+      <c r="B301" t="s">
+        <v>351</v>
+      </c>
+      <c r="C301" t="s">
+        <v>468</v>
+      </c>
+      <c r="D301" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>348</v>
+      </c>
+      <c r="B302" t="s">
+        <v>352</v>
+      </c>
+      <c r="C302" t="s">
+        <v>468</v>
+      </c>
+      <c r="D302" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>348</v>
+      </c>
+      <c r="B303" t="s">
+        <v>353</v>
+      </c>
+      <c r="C303" t="s">
+        <v>468</v>
+      </c>
+      <c r="D303" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>348</v>
+      </c>
+      <c r="B304" t="s">
+        <v>508</v>
+      </c>
+      <c r="C304" t="s">
+        <v>468</v>
+      </c>
+      <c r="D304" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>348</v>
+      </c>
+      <c r="B305" t="s">
+        <v>511</v>
+      </c>
+      <c r="C305" t="s">
+        <v>468</v>
+      </c>
+      <c r="D305" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>348</v>
+      </c>
+      <c r="B306" t="s">
+        <v>628</v>
+      </c>
+      <c r="C306" t="s">
+        <v>468</v>
+      </c>
+      <c r="D306" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>348</v>
+      </c>
+      <c r="B307" t="s">
+        <v>538</v>
+      </c>
+      <c r="C307" t="s">
+        <v>468</v>
+      </c>
+      <c r="D307" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>348</v>
+      </c>
+      <c r="B308" t="s">
+        <v>539</v>
+      </c>
+      <c r="C308" t="s">
+        <v>468</v>
+      </c>
+      <c r="D308" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>348</v>
+      </c>
+      <c r="B309" t="s">
+        <v>512</v>
+      </c>
+      <c r="C309" t="s">
+        <v>468</v>
+      </c>
+      <c r="D309" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>348</v>
+      </c>
+      <c r="B310" t="s">
+        <v>354</v>
+      </c>
+      <c r="C310" t="s">
+        <v>468</v>
+      </c>
+      <c r="D310" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>348</v>
+      </c>
+      <c r="B311" t="s">
+        <v>640</v>
+      </c>
+      <c r="C311" t="s">
+        <v>468</v>
+      </c>
+      <c r="D311" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>348</v>
+      </c>
+      <c r="B312" t="s">
+        <v>355</v>
+      </c>
+      <c r="C312" t="s">
+        <v>468</v>
+      </c>
+      <c r="D312" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>348</v>
+      </c>
+      <c r="B313" t="s">
+        <v>630</v>
+      </c>
+      <c r="C313" t="s">
+        <v>468</v>
+      </c>
+      <c r="D313" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>348</v>
+      </c>
+      <c r="B314" t="s">
+        <v>631</v>
+      </c>
+      <c r="C314" t="s">
+        <v>468</v>
+      </c>
+      <c r="D314" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>348</v>
+      </c>
+      <c r="B315" t="s">
+        <v>510</v>
+      </c>
+      <c r="C315" t="s">
+        <v>468</v>
+      </c>
+      <c r="D315" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>348</v>
+      </c>
+      <c r="B316" t="s">
+        <v>356</v>
+      </c>
+      <c r="C316" t="s">
+        <v>468</v>
+      </c>
+      <c r="D316" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>348</v>
+      </c>
+      <c r="B317" t="s">
+        <v>634</v>
+      </c>
+      <c r="C317" t="s">
+        <v>468</v>
+      </c>
+      <c r="D317" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>348</v>
+      </c>
+      <c r="B318" t="s">
+        <v>636</v>
+      </c>
+      <c r="C318" t="s">
+        <v>468</v>
+      </c>
+      <c r="D318" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>348</v>
+      </c>
+      <c r="B319" t="s">
+        <v>357</v>
+      </c>
+      <c r="C319" t="s">
+        <v>468</v>
+      </c>
+      <c r="D319" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>348</v>
+      </c>
+      <c r="B320" t="s">
+        <v>638</v>
+      </c>
+      <c r="C320" t="s">
+        <v>468</v>
+      </c>
+      <c r="D320" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>348</v>
+      </c>
+      <c r="B321" t="s">
+        <v>358</v>
+      </c>
+      <c r="C321" t="s">
+        <v>468</v>
+      </c>
+      <c r="D321" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>348</v>
+      </c>
+      <c r="B322" t="s">
+        <v>642</v>
+      </c>
+      <c r="C322" t="s">
+        <v>468</v>
+      </c>
+      <c r="D322" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>348</v>
+      </c>
+      <c r="B323" t="s">
+        <v>359</v>
+      </c>
+      <c r="C323" t="s">
+        <v>468</v>
+      </c>
+      <c r="D323" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>348</v>
+      </c>
+      <c r="B324" t="s">
+        <v>648</v>
+      </c>
+      <c r="C324" t="s">
+        <v>468</v>
+      </c>
+      <c r="D324" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>348</v>
+      </c>
+      <c r="B325" t="s">
+        <v>651</v>
+      </c>
+      <c r="C325" t="s">
+        <v>468</v>
+      </c>
+      <c r="D325" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>348</v>
+      </c>
+      <c r="B326" t="s">
+        <v>360</v>
+      </c>
+      <c r="C326" t="s">
+        <v>468</v>
+      </c>
+      <c r="D326" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>348</v>
+      </c>
+      <c r="B327" t="s">
+        <v>361</v>
+      </c>
+      <c r="C327" t="s">
+        <v>468</v>
+      </c>
+      <c r="D327" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>348</v>
+      </c>
+      <c r="B328" t="s">
+        <v>362</v>
+      </c>
+      <c r="C328" t="s">
+        <v>468</v>
+      </c>
+      <c r="D328" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>348</v>
+      </c>
+      <c r="B329" t="s">
+        <v>363</v>
+      </c>
+      <c r="C329" t="s">
+        <v>468</v>
+      </c>
+      <c r="D329" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>348</v>
+      </c>
+      <c r="B330" t="s">
+        <v>644</v>
+      </c>
+      <c r="C330" t="s">
+        <v>468</v>
+      </c>
+      <c r="D330" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>348</v>
+      </c>
+      <c r="B331" t="s">
+        <v>364</v>
+      </c>
+      <c r="C331" t="s">
+        <v>468</v>
+      </c>
+      <c r="D331" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>348</v>
+      </c>
+      <c r="B332" t="s">
+        <v>365</v>
+      </c>
+      <c r="C332" t="s">
+        <v>468</v>
+      </c>
+      <c r="D332" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>348</v>
+      </c>
+      <c r="B333" t="s">
+        <v>366</v>
+      </c>
+      <c r="C333" t="s">
+        <v>468</v>
+      </c>
+      <c r="D333" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>348</v>
+      </c>
+      <c r="B334" t="s">
+        <v>367</v>
+      </c>
+      <c r="C334" t="s">
+        <v>468</v>
+      </c>
+      <c r="D334" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>348</v>
+      </c>
+      <c r="B335" t="s">
+        <v>368</v>
+      </c>
+      <c r="C335" t="s">
+        <v>468</v>
+      </c>
+      <c r="D335" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>348</v>
+      </c>
+      <c r="B336" t="s">
+        <v>369</v>
+      </c>
+      <c r="C336" t="s">
+        <v>468</v>
+      </c>
+      <c r="D336" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>348</v>
+      </c>
+      <c r="B337" t="s">
+        <v>622</v>
+      </c>
+      <c r="C337" t="s">
+        <v>468</v>
+      </c>
+      <c r="D337" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>348</v>
+      </c>
+      <c r="B338" t="s">
+        <v>623</v>
+      </c>
+      <c r="C338" t="s">
+        <v>468</v>
+      </c>
+      <c r="D338" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>348</v>
+      </c>
+      <c r="B339" t="s">
+        <v>624</v>
+      </c>
+      <c r="C339" t="s">
+        <v>468</v>
+      </c>
+      <c r="D339" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>348</v>
+      </c>
+      <c r="B340" t="s">
+        <v>646</v>
+      </c>
+      <c r="C340" t="s">
+        <v>468</v>
+      </c>
+      <c r="D340" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
         <v>370</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B341" t="s">
+        <v>371</v>
+      </c>
+      <c r="C341" t="s">
+        <v>489</v>
+      </c>
+      <c r="D341" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>370</v>
+      </c>
+      <c r="B342" t="s">
+        <v>372</v>
+      </c>
+      <c r="C342" t="s">
+        <v>489</v>
+      </c>
+      <c r="D342" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>370</v>
+      </c>
+      <c r="B343" t="s">
+        <v>523</v>
+      </c>
+      <c r="C343" t="s">
+        <v>489</v>
+      </c>
+      <c r="D343" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>370</v>
+      </c>
+      <c r="B344" t="s">
         <v>524</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C344" t="s">
         <v>489</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D344" t="s">
         <v>526</v>
       </c>
     </row>

--- a/kor2eng.xlsx
+++ b/kor2eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SeungwooKang_1/Documents/GitHub/south-korea-election/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/south-korea-election/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB99D96F-DCF6-4D4D-9F26-C508C847895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40ED7FA-3DF8-214D-BD85-CC0BD7B5CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20480" yWindow="900" windowWidth="19080" windowHeight="19540" xr2:uid="{485E5265-5BD5-BA4D-8DB3-B0C0895E5122}"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{485E5265-5BD5-BA4D-8DB3-B0C0895E5122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="678">
   <si>
     <t>종로구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2501,6 +2501,14 @@
   </si>
   <si>
     <t>Gwangyang-gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미추홀구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michuhol-gu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2879,10 +2887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7418C56A-0A02-6E49-BE92-F2987AC8A519}">
-  <dimension ref="A1:D344"/>
+  <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E243" sqref="E243"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3638,13 +3646,13 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="C54" t="s">
         <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3652,13 +3660,13 @@
         <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>652</v>
       </c>
       <c r="C55" t="s">
         <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3666,13 +3674,13 @@
         <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3680,13 +3688,13 @@
         <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
         <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3694,13 +3702,13 @@
         <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3708,13 +3716,13 @@
         <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
         <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3722,13 +3730,13 @@
         <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
         <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3736,27 +3744,27 @@
         <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
         <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3764,13 +3772,13 @@
         <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
         <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3778,13 +3786,13 @@
         <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
         <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3792,13 +3800,13 @@
         <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
         <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3806,27 +3814,27 @@
         <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
         <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3834,13 +3842,13 @@
         <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
         <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3848,13 +3856,13 @@
         <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
         <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3862,13 +3870,13 @@
         <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
         <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3876,27 +3884,27 @@
         <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
         <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3904,13 +3912,13 @@
         <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
         <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3918,13 +3926,13 @@
         <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
         <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3932,13 +3940,13 @@
         <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3946,41 +3954,41 @@
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
         <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3988,13 +3996,13 @@
         <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
         <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4002,13 +4010,13 @@
         <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
         <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4016,13 +4024,13 @@
         <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4030,13 +4038,13 @@
         <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
         <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4044,13 +4052,13 @@
         <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
         <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4058,13 +4066,13 @@
         <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
         <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4072,13 +4080,13 @@
         <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85" t="s">
         <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4086,13 +4094,13 @@
         <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
         <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4100,13 +4108,13 @@
         <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
         <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4114,13 +4122,13 @@
         <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
         <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4128,13 +4136,13 @@
         <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>576</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
         <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>578</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4142,13 +4150,13 @@
         <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C90" t="s">
         <v>189</v>
       </c>
       <c r="D90" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4156,13 +4164,13 @@
         <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>494</v>
+        <v>577</v>
       </c>
       <c r="C91" t="s">
         <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>497</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4170,13 +4178,13 @@
         <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C92" t="s">
         <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4184,13 +4192,13 @@
         <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C93" t="s">
         <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4198,13 +4206,13 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>496</v>
       </c>
       <c r="C94" t="s">
         <v>189</v>
       </c>
       <c r="D94" t="s">
-        <v>200</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4212,13 +4220,13 @@
         <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
         <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4226,13 +4234,13 @@
         <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
         <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>582</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4240,13 +4248,13 @@
         <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C97" t="s">
         <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4254,13 +4262,13 @@
         <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>581</v>
       </c>
       <c r="C98" t="s">
         <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>202</v>
+        <v>583</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4268,13 +4276,13 @@
         <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>515</v>
+        <v>121</v>
       </c>
       <c r="C99" t="s">
         <v>189</v>
       </c>
       <c r="D99" t="s">
-        <v>516</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4282,13 +4290,13 @@
         <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>515</v>
       </c>
       <c r="C100" t="s">
         <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>203</v>
+        <v>516</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4296,13 +4304,13 @@
         <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
         <v>189</v>
       </c>
       <c r="D101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4310,13 +4318,13 @@
         <v>149</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
         <v>189</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4324,13 +4332,13 @@
         <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>527</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
         <v>189</v>
       </c>
       <c r="D103" t="s">
-        <v>528</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4338,13 +4346,13 @@
         <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="C104" t="s">
         <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>206</v>
+        <v>528</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4352,13 +4360,13 @@
         <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
         <v>189</v>
       </c>
       <c r="D105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4366,13 +4374,13 @@
         <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C106" t="s">
         <v>189</v>
       </c>
       <c r="D106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4380,13 +4388,13 @@
         <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>517</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
         <v>189</v>
       </c>
       <c r="D107" t="s">
-        <v>518</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4394,13 +4402,13 @@
         <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="C108" t="s">
         <v>189</v>
       </c>
       <c r="D108" t="s">
-        <v>591</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4408,13 +4416,13 @@
         <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>590</v>
       </c>
       <c r="C109" t="s">
         <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>209</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4422,13 +4430,13 @@
         <v>149</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
         <v>189</v>
       </c>
       <c r="D110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4436,13 +4444,13 @@
         <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
         <v>189</v>
       </c>
       <c r="D111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4450,13 +4458,13 @@
         <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
         <v>189</v>
       </c>
       <c r="D112" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4464,13 +4472,13 @@
         <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>584</v>
+        <v>131</v>
       </c>
       <c r="C113" t="s">
         <v>189</v>
       </c>
       <c r="D113" t="s">
-        <v>585</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4478,13 +4486,13 @@
         <v>149</v>
       </c>
       <c r="B114" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C114" t="s">
         <v>189</v>
       </c>
       <c r="D114" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4492,13 +4500,13 @@
         <v>149</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>586</v>
       </c>
       <c r="C115" t="s">
         <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>213</v>
+        <v>587</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4506,13 +4514,13 @@
         <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
         <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4520,13 +4528,13 @@
         <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>530</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
         <v>189</v>
       </c>
       <c r="D117" t="s">
-        <v>531</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4534,13 +4542,13 @@
         <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>530</v>
       </c>
       <c r="C118" t="s">
         <v>189</v>
       </c>
       <c r="D118" t="s">
-        <v>215</v>
+        <v>531</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4548,13 +4556,13 @@
         <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>529</v>
+        <v>134</v>
       </c>
       <c r="C119" t="s">
         <v>189</v>
       </c>
       <c r="D119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4562,13 +4570,13 @@
         <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>529</v>
       </c>
       <c r="C120" t="s">
         <v>189</v>
       </c>
       <c r="D120" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4576,13 +4584,13 @@
         <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C121" t="s">
         <v>189</v>
       </c>
       <c r="D121" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4590,13 +4598,13 @@
         <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>588</v>
+        <v>136</v>
       </c>
       <c r="C122" t="s">
         <v>189</v>
       </c>
       <c r="D122" t="s">
-        <v>589</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4604,13 +4612,13 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>588</v>
       </c>
       <c r="C123" t="s">
         <v>189</v>
       </c>
       <c r="D123" t="s">
-        <v>219</v>
+        <v>589</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4618,13 +4626,13 @@
         <v>149</v>
       </c>
       <c r="B124" t="s">
-        <v>500</v>
+        <v>137</v>
       </c>
       <c r="C124" t="s">
         <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>501</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4632,13 +4640,13 @@
         <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>500</v>
       </c>
       <c r="C125" t="s">
         <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>220</v>
+        <v>501</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4646,13 +4654,13 @@
         <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>592</v>
+        <v>138</v>
       </c>
       <c r="C126" t="s">
         <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>593</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4660,13 +4668,13 @@
         <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>139</v>
+        <v>592</v>
       </c>
       <c r="C127" t="s">
         <v>189</v>
       </c>
       <c r="D127" t="s">
-        <v>221</v>
+        <v>593</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4674,13 +4682,13 @@
         <v>149</v>
       </c>
       <c r="B128" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C128" t="s">
         <v>189</v>
       </c>
       <c r="D128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4688,13 +4696,13 @@
         <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C129" t="s">
         <v>189</v>
       </c>
       <c r="D129" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4702,13 +4710,13 @@
         <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>519</v>
+        <v>141</v>
       </c>
       <c r="C130" t="s">
         <v>189</v>
       </c>
       <c r="D130" t="s">
-        <v>520</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4716,13 +4724,13 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="C131" t="s">
         <v>189</v>
       </c>
       <c r="D131" t="s">
-        <v>595</v>
+        <v>520</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4730,13 +4738,13 @@
         <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>594</v>
       </c>
       <c r="C132" t="s">
         <v>189</v>
       </c>
       <c r="D132" t="s">
-        <v>223</v>
+        <v>595</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4744,13 +4752,13 @@
         <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>536</v>
+        <v>142</v>
       </c>
       <c r="C133" t="s">
         <v>189</v>
       </c>
       <c r="D133" t="s">
-        <v>537</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4758,13 +4766,13 @@
         <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>536</v>
       </c>
       <c r="C134" t="s">
         <v>189</v>
       </c>
       <c r="D134" t="s">
-        <v>224</v>
+        <v>537</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4772,13 +4780,13 @@
         <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>534</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
         <v>189</v>
       </c>
       <c r="D135" t="s">
-        <v>535</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4786,13 +4794,13 @@
         <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>534</v>
       </c>
       <c r="C136" t="s">
         <v>189</v>
       </c>
       <c r="D136" t="s">
-        <v>225</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4800,13 +4808,13 @@
         <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>532</v>
+        <v>144</v>
       </c>
       <c r="C137" t="s">
         <v>189</v>
       </c>
       <c r="D137" t="s">
-        <v>533</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4814,13 +4822,13 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>532</v>
       </c>
       <c r="C138" t="s">
         <v>189</v>
       </c>
       <c r="D138" t="s">
-        <v>226</v>
+        <v>533</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4828,13 +4836,13 @@
         <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>521</v>
+        <v>145</v>
       </c>
       <c r="C139" t="s">
         <v>189</v>
       </c>
       <c r="D139" t="s">
-        <v>522</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4842,13 +4850,13 @@
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>521</v>
       </c>
       <c r="C140" t="s">
         <v>189</v>
       </c>
       <c r="D140" t="s">
-        <v>227</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4856,13 +4864,13 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
         <v>189</v>
       </c>
       <c r="D141" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4870,13 +4878,13 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C142" t="s">
         <v>189</v>
       </c>
       <c r="D142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4884,13 +4892,13 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
         <v>189</v>
       </c>
       <c r="D143" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4898,27 +4906,27 @@
         <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>596</v>
+        <v>98</v>
       </c>
       <c r="C144" t="s">
         <v>189</v>
       </c>
       <c r="D144" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>596</v>
       </c>
       <c r="C145" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D145" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4926,13 +4934,13 @@
         <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>572</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
         <v>230</v>
       </c>
       <c r="D146" t="s">
-        <v>573</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4940,13 +4948,13 @@
         <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>572</v>
       </c>
       <c r="C147" t="s">
         <v>230</v>
       </c>
       <c r="D147" t="s">
-        <v>232</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4954,13 +4962,13 @@
         <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>574</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
         <v>230</v>
       </c>
       <c r="D148" t="s">
-        <v>575</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4968,13 +4976,13 @@
         <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>574</v>
       </c>
       <c r="C149" t="s">
         <v>230</v>
       </c>
       <c r="D149" t="s">
-        <v>233</v>
+        <v>575</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4982,13 +4990,13 @@
         <v>168</v>
       </c>
       <c r="B150" t="s">
-        <v>568</v>
+        <v>152</v>
       </c>
       <c r="C150" t="s">
         <v>230</v>
       </c>
       <c r="D150" t="s">
-        <v>569</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4996,13 +5004,13 @@
         <v>168</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>568</v>
       </c>
       <c r="C151" t="s">
         <v>230</v>
       </c>
       <c r="D151" t="s">
-        <v>234</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5010,13 +5018,13 @@
         <v>168</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
         <v>230</v>
       </c>
       <c r="D152" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5024,13 +5032,13 @@
         <v>168</v>
       </c>
       <c r="B153" t="s">
-        <v>570</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
         <v>230</v>
       </c>
       <c r="D153" t="s">
-        <v>571</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5038,13 +5046,13 @@
         <v>168</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>570</v>
       </c>
       <c r="C154" t="s">
         <v>230</v>
       </c>
       <c r="D154" t="s">
-        <v>236</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5052,13 +5060,13 @@
         <v>168</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
         <v>230</v>
       </c>
       <c r="D155" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5066,13 +5074,13 @@
         <v>168</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
         <v>230</v>
       </c>
       <c r="D156" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5080,13 +5088,13 @@
         <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
         <v>230</v>
       </c>
       <c r="D157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5094,13 +5102,13 @@
         <v>168</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
         <v>230</v>
       </c>
       <c r="D158" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5108,13 +5116,13 @@
         <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
         <v>230</v>
       </c>
       <c r="D159" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5122,13 +5130,13 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
         <v>230</v>
       </c>
       <c r="D160" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5136,13 +5144,13 @@
         <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
         <v>230</v>
       </c>
       <c r="D161" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5150,13 +5158,13 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
         <v>230</v>
       </c>
       <c r="D162" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5164,13 +5172,13 @@
         <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
         <v>230</v>
       </c>
       <c r="D163" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5178,13 +5186,13 @@
         <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
         <v>230</v>
       </c>
       <c r="D164" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5192,13 +5200,13 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
         <v>230</v>
       </c>
       <c r="D165" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5206,27 +5214,27 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
         <v>230</v>
       </c>
       <c r="D166" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D167" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5234,13 +5242,13 @@
         <v>264</v>
       </c>
       <c r="B168" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C168" t="s">
         <v>265</v>
       </c>
       <c r="D168" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5248,13 +5256,13 @@
         <v>264</v>
       </c>
       <c r="B169" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C169" t="s">
         <v>265</v>
       </c>
       <c r="D169" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5262,13 +5270,13 @@
         <v>264</v>
       </c>
       <c r="B170" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C170" t="s">
         <v>265</v>
       </c>
       <c r="D170" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5276,13 +5284,13 @@
         <v>264</v>
       </c>
       <c r="B171" t="s">
-        <v>546</v>
+        <v>253</v>
       </c>
       <c r="C171" t="s">
         <v>265</v>
       </c>
       <c r="D171" t="s">
-        <v>547</v>
+        <v>374</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5290,13 +5298,13 @@
         <v>264</v>
       </c>
       <c r="B172" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="C172" t="s">
         <v>265</v>
       </c>
       <c r="D172" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5304,13 +5312,13 @@
         <v>264</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>492</v>
       </c>
       <c r="C173" t="s">
         <v>265</v>
       </c>
       <c r="D173" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5318,13 +5326,13 @@
         <v>264</v>
       </c>
       <c r="B174" t="s">
-        <v>550</v>
+        <v>254</v>
       </c>
       <c r="C174" t="s">
         <v>265</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>551</v>
+      <c r="D174" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5332,13 +5340,13 @@
         <v>264</v>
       </c>
       <c r="B175" t="s">
-        <v>255</v>
+        <v>550</v>
       </c>
       <c r="C175" t="s">
         <v>265</v>
       </c>
-      <c r="D175" t="s">
-        <v>376</v>
+      <c r="D175" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5346,13 +5354,13 @@
         <v>264</v>
       </c>
       <c r="B176" t="s">
-        <v>548</v>
+        <v>255</v>
       </c>
       <c r="C176" t="s">
         <v>265</v>
       </c>
       <c r="D176" t="s">
-        <v>549</v>
+        <v>376</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5360,13 +5368,13 @@
         <v>264</v>
       </c>
       <c r="B177" t="s">
-        <v>256</v>
+        <v>548</v>
       </c>
       <c r="C177" t="s">
         <v>265</v>
       </c>
       <c r="D177" t="s">
-        <v>377</v>
+        <v>549</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5374,13 +5382,13 @@
         <v>264</v>
       </c>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C178" t="s">
         <v>265</v>
       </c>
       <c r="D178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5388,13 +5396,13 @@
         <v>264</v>
       </c>
       <c r="B179" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C179" t="s">
         <v>265</v>
       </c>
       <c r="D179" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5402,13 +5410,13 @@
         <v>264</v>
       </c>
       <c r="B180" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C180" t="s">
         <v>265</v>
       </c>
       <c r="D180" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5416,13 +5424,13 @@
         <v>264</v>
       </c>
       <c r="B181" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C181" t="s">
         <v>265</v>
       </c>
       <c r="D181" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5430,13 +5438,13 @@
         <v>264</v>
       </c>
       <c r="B182" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C182" t="s">
         <v>265</v>
       </c>
       <c r="D182" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5444,13 +5452,13 @@
         <v>264</v>
       </c>
       <c r="B183" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C183" t="s">
         <v>265</v>
       </c>
       <c r="D183" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5458,27 +5466,27 @@
         <v>264</v>
       </c>
       <c r="B184" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C184" t="s">
         <v>265</v>
       </c>
       <c r="D184" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B185" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C185" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="D185" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5486,13 +5494,13 @@
         <v>284</v>
       </c>
       <c r="B186" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C186" t="s">
         <v>385</v>
       </c>
       <c r="D186" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5500,13 +5508,13 @@
         <v>284</v>
       </c>
       <c r="B187" t="s">
-        <v>502</v>
+        <v>269</v>
       </c>
       <c r="C187" t="s">
         <v>385</v>
       </c>
       <c r="D187" t="s">
-        <v>503</v>
+        <v>387</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5514,13 +5522,13 @@
         <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>566</v>
+        <v>502</v>
       </c>
       <c r="C188" t="s">
         <v>385</v>
       </c>
       <c r="D188" t="s">
-        <v>567</v>
+        <v>503</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5528,13 +5536,13 @@
         <v>284</v>
       </c>
       <c r="B189" t="s">
-        <v>270</v>
+        <v>566</v>
       </c>
       <c r="C189" t="s">
         <v>385</v>
       </c>
       <c r="D189" t="s">
-        <v>388</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5542,13 +5550,13 @@
         <v>284</v>
       </c>
       <c r="B190" t="s">
-        <v>552</v>
+        <v>270</v>
       </c>
       <c r="C190" t="s">
         <v>385</v>
       </c>
       <c r="D190" t="s">
-        <v>553</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5556,13 +5564,13 @@
         <v>284</v>
       </c>
       <c r="B191" t="s">
-        <v>271</v>
+        <v>552</v>
       </c>
       <c r="C191" t="s">
         <v>385</v>
       </c>
       <c r="D191" t="s">
-        <v>389</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5570,13 +5578,13 @@
         <v>284</v>
       </c>
       <c r="B192" t="s">
-        <v>554</v>
+        <v>271</v>
       </c>
       <c r="C192" t="s">
         <v>385</v>
       </c>
       <c r="D192" t="s">
-        <v>555</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5584,13 +5592,13 @@
         <v>284</v>
       </c>
       <c r="B193" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C193" t="s">
         <v>385</v>
       </c>
       <c r="D193" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5598,13 +5606,13 @@
         <v>284</v>
       </c>
       <c r="B194" t="s">
-        <v>272</v>
+        <v>556</v>
       </c>
       <c r="C194" t="s">
         <v>385</v>
       </c>
       <c r="D194" t="s">
-        <v>390</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5612,13 +5620,13 @@
         <v>284</v>
       </c>
       <c r="B195" t="s">
-        <v>559</v>
+        <v>272</v>
       </c>
       <c r="C195" t="s">
         <v>385</v>
       </c>
       <c r="D195" t="s">
-        <v>558</v>
+        <v>390</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5626,13 +5634,13 @@
         <v>284</v>
       </c>
       <c r="B196" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C196" t="s">
         <v>385</v>
       </c>
       <c r="D196" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5640,13 +5648,13 @@
         <v>284</v>
       </c>
       <c r="B197" t="s">
-        <v>273</v>
+        <v>560</v>
       </c>
       <c r="C197" t="s">
         <v>385</v>
       </c>
       <c r="D197" t="s">
-        <v>391</v>
+        <v>561</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5654,13 +5662,13 @@
         <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>564</v>
+        <v>273</v>
       </c>
       <c r="C198" t="s">
         <v>385</v>
       </c>
       <c r="D198" t="s">
-        <v>565</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5668,13 +5676,13 @@
         <v>284</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>564</v>
       </c>
       <c r="C199" t="s">
         <v>385</v>
       </c>
       <c r="D199" t="s">
-        <v>392</v>
+        <v>565</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5682,13 +5690,13 @@
         <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C200" t="s">
         <v>385</v>
       </c>
       <c r="D200" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5696,13 +5704,13 @@
         <v>284</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C201" t="s">
         <v>385</v>
       </c>
       <c r="D201" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5710,13 +5718,13 @@
         <v>284</v>
       </c>
       <c r="B202" t="s">
-        <v>562</v>
+        <v>276</v>
       </c>
       <c r="C202" t="s">
         <v>385</v>
       </c>
       <c r="D202" t="s">
-        <v>563</v>
+        <v>394</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5724,13 +5732,13 @@
         <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>277</v>
+        <v>562</v>
       </c>
       <c r="C203" t="s">
         <v>385</v>
       </c>
       <c r="D203" t="s">
-        <v>395</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5738,13 +5746,13 @@
         <v>284</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C204" t="s">
         <v>385</v>
       </c>
       <c r="D204" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5752,13 +5760,13 @@
         <v>284</v>
       </c>
       <c r="B205" t="s">
-        <v>506</v>
+        <v>278</v>
       </c>
       <c r="C205" t="s">
         <v>385</v>
       </c>
       <c r="D205" t="s">
-        <v>507</v>
+        <v>396</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5766,13 +5774,13 @@
         <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>279</v>
+        <v>506</v>
       </c>
       <c r="C206" t="s">
         <v>385</v>
       </c>
       <c r="D206" t="s">
-        <v>397</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5780,13 +5788,13 @@
         <v>284</v>
       </c>
       <c r="B207" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C207" t="s">
         <v>385</v>
       </c>
       <c r="D207" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5794,13 +5802,13 @@
         <v>284</v>
       </c>
       <c r="B208" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C208" t="s">
         <v>385</v>
       </c>
       <c r="D208" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5808,13 +5816,13 @@
         <v>284</v>
       </c>
       <c r="B209" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C209" t="s">
         <v>385</v>
       </c>
       <c r="D209" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5822,13 +5830,13 @@
         <v>284</v>
       </c>
       <c r="B210" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C210" t="s">
         <v>385</v>
       </c>
       <c r="D210" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5836,27 +5844,27 @@
         <v>284</v>
       </c>
       <c r="B211" t="s">
-        <v>504</v>
+        <v>283</v>
       </c>
       <c r="C211" t="s">
         <v>385</v>
       </c>
       <c r="D211" t="s">
-        <v>505</v>
+        <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B212" t="s">
-        <v>286</v>
+        <v>504</v>
       </c>
       <c r="C212" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D212" t="s">
-        <v>402</v>
+        <v>505</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5864,13 +5872,13 @@
         <v>285</v>
       </c>
       <c r="B213" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C213" t="s">
         <v>403</v>
       </c>
       <c r="D213" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5878,13 +5886,13 @@
         <v>285</v>
       </c>
       <c r="B214" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C214" t="s">
         <v>403</v>
       </c>
       <c r="D214" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5892,13 +5900,13 @@
         <v>285</v>
       </c>
       <c r="B215" t="s">
-        <v>666</v>
+        <v>288</v>
       </c>
       <c r="C215" t="s">
         <v>403</v>
       </c>
       <c r="D215" t="s">
-        <v>667</v>
+        <v>405</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5906,13 +5914,13 @@
         <v>285</v>
       </c>
       <c r="B216" t="s">
-        <v>289</v>
+        <v>666</v>
       </c>
       <c r="C216" t="s">
         <v>403</v>
       </c>
       <c r="D216" t="s">
-        <v>406</v>
+        <v>667</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5920,13 +5928,13 @@
         <v>285</v>
       </c>
       <c r="B217" t="s">
-        <v>654</v>
+        <v>289</v>
       </c>
       <c r="C217" t="s">
         <v>403</v>
       </c>
       <c r="D217" t="s">
-        <v>655</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5934,13 +5942,13 @@
         <v>285</v>
       </c>
       <c r="B218" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C218" t="s">
         <v>403</v>
       </c>
       <c r="D218" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5948,13 +5956,13 @@
         <v>285</v>
       </c>
       <c r="B219" t="s">
-        <v>290</v>
+        <v>656</v>
       </c>
       <c r="C219" t="s">
         <v>403</v>
       </c>
       <c r="D219" t="s">
-        <v>407</v>
+        <v>657</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5962,13 +5970,13 @@
         <v>285</v>
       </c>
       <c r="B220" t="s">
-        <v>658</v>
+        <v>290</v>
       </c>
       <c r="C220" t="s">
         <v>403</v>
       </c>
       <c r="D220" t="s">
-        <v>661</v>
+        <v>407</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5976,13 +5984,13 @@
         <v>285</v>
       </c>
       <c r="B221" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C221" t="s">
         <v>403</v>
       </c>
       <c r="D221" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5990,13 +5998,13 @@
         <v>285</v>
       </c>
       <c r="B222" t="s">
-        <v>291</v>
+        <v>659</v>
       </c>
       <c r="C222" t="s">
         <v>403</v>
       </c>
       <c r="D222" t="s">
-        <v>408</v>
+        <v>660</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6004,13 +6012,13 @@
         <v>285</v>
       </c>
       <c r="B223" t="s">
-        <v>662</v>
+        <v>291</v>
       </c>
       <c r="C223" t="s">
         <v>403</v>
       </c>
       <c r="D223" t="s">
-        <v>663</v>
+        <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6018,13 +6026,13 @@
         <v>285</v>
       </c>
       <c r="B224" t="s">
-        <v>292</v>
+        <v>662</v>
       </c>
       <c r="C224" t="s">
         <v>403</v>
       </c>
       <c r="D224" t="s">
-        <v>409</v>
+        <v>663</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6032,13 +6040,13 @@
         <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>664</v>
+        <v>292</v>
       </c>
       <c r="C225" t="s">
         <v>403</v>
       </c>
       <c r="D225" t="s">
-        <v>665</v>
+        <v>409</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6046,13 +6054,13 @@
         <v>285</v>
       </c>
       <c r="B226" t="s">
-        <v>293</v>
+        <v>664</v>
       </c>
       <c r="C226" t="s">
         <v>403</v>
       </c>
       <c r="D226" t="s">
-        <v>410</v>
+        <v>665</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6060,13 +6068,13 @@
         <v>285</v>
       </c>
       <c r="B227" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C227" t="s">
         <v>403</v>
       </c>
       <c r="D227" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6074,13 +6082,13 @@
         <v>285</v>
       </c>
       <c r="B228" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C228" t="s">
         <v>403</v>
       </c>
       <c r="D228" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6088,13 +6096,13 @@
         <v>285</v>
       </c>
       <c r="B229" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C229" t="s">
         <v>403</v>
       </c>
       <c r="D229" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6102,13 +6110,13 @@
         <v>285</v>
       </c>
       <c r="B230" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C230" t="s">
         <v>403</v>
       </c>
       <c r="D230" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6116,13 +6124,13 @@
         <v>285</v>
       </c>
       <c r="B231" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C231" t="s">
         <v>403</v>
       </c>
       <c r="D231" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6130,13 +6138,13 @@
         <v>285</v>
       </c>
       <c r="B232" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C232" t="s">
         <v>403</v>
       </c>
       <c r="D232" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6144,27 +6152,27 @@
         <v>285</v>
       </c>
       <c r="B233" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C233" t="s">
         <v>403</v>
       </c>
       <c r="D233" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B234" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C234" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D234" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6172,13 +6180,13 @@
         <v>323</v>
       </c>
       <c r="B235" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C235" t="s">
         <v>418</v>
       </c>
       <c r="D235" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6186,13 +6194,13 @@
         <v>323</v>
       </c>
       <c r="B236" t="s">
-        <v>542</v>
+        <v>302</v>
       </c>
       <c r="C236" t="s">
         <v>418</v>
       </c>
       <c r="D236" t="s">
-        <v>544</v>
+        <v>420</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6200,13 +6208,13 @@
         <v>323</v>
       </c>
       <c r="B237" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C237" t="s">
         <v>418</v>
       </c>
       <c r="D237" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6214,13 +6222,13 @@
         <v>323</v>
       </c>
       <c r="B238" t="s">
-        <v>303</v>
+        <v>543</v>
       </c>
       <c r="C238" t="s">
         <v>418</v>
       </c>
       <c r="D238" t="s">
-        <v>421</v>
+        <v>545</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6228,13 +6236,13 @@
         <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>670</v>
+        <v>303</v>
       </c>
       <c r="C239" t="s">
         <v>418</v>
       </c>
       <c r="D239" t="s">
-        <v>671</v>
+        <v>421</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6242,13 +6250,13 @@
         <v>323</v>
       </c>
       <c r="B240" t="s">
-        <v>304</v>
+        <v>670</v>
       </c>
       <c r="C240" t="s">
         <v>418</v>
       </c>
       <c r="D240" t="s">
-        <v>422</v>
+        <v>671</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6256,13 +6264,13 @@
         <v>323</v>
       </c>
       <c r="B241" t="s">
-        <v>668</v>
+        <v>304</v>
       </c>
       <c r="C241" t="s">
         <v>418</v>
       </c>
       <c r="D241" t="s">
-        <v>669</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6270,13 +6278,13 @@
         <v>323</v>
       </c>
       <c r="B242" t="s">
-        <v>305</v>
+        <v>668</v>
       </c>
       <c r="C242" t="s">
         <v>418</v>
       </c>
       <c r="D242" t="s">
-        <v>423</v>
+        <v>669</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6284,13 +6292,13 @@
         <v>323</v>
       </c>
       <c r="B243" t="s">
-        <v>672</v>
+        <v>305</v>
       </c>
       <c r="C243" t="s">
         <v>418</v>
       </c>
       <c r="D243" t="s">
-        <v>675</v>
+        <v>423</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6298,13 +6306,13 @@
         <v>323</v>
       </c>
       <c r="B244" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C244" t="s">
         <v>418</v>
       </c>
       <c r="D244" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6312,13 +6320,13 @@
         <v>323</v>
       </c>
       <c r="B245" t="s">
-        <v>306</v>
+        <v>673</v>
       </c>
       <c r="C245" t="s">
         <v>418</v>
       </c>
       <c r="D245" t="s">
-        <v>424</v>
+        <v>674</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6326,13 +6334,13 @@
         <v>323</v>
       </c>
       <c r="B246" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C246" t="s">
         <v>418</v>
       </c>
       <c r="D246" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6340,13 +6348,13 @@
         <v>323</v>
       </c>
       <c r="B247" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C247" t="s">
         <v>418</v>
       </c>
       <c r="D247" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6354,13 +6362,13 @@
         <v>323</v>
       </c>
       <c r="B248" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C248" t="s">
         <v>418</v>
       </c>
       <c r="D248" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6368,13 +6376,13 @@
         <v>323</v>
       </c>
       <c r="B249" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C249" t="s">
         <v>418</v>
       </c>
       <c r="D249" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6382,13 +6390,13 @@
         <v>323</v>
       </c>
       <c r="B250" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C250" t="s">
         <v>418</v>
       </c>
       <c r="D250" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6396,13 +6404,13 @@
         <v>323</v>
       </c>
       <c r="B251" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C251" t="s">
         <v>418</v>
       </c>
       <c r="D251" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6410,13 +6418,13 @@
         <v>323</v>
       </c>
       <c r="B252" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C252" t="s">
         <v>418</v>
       </c>
       <c r="D252" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6424,13 +6432,13 @@
         <v>323</v>
       </c>
       <c r="B253" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C253" t="s">
         <v>418</v>
       </c>
       <c r="D253" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6438,13 +6446,13 @@
         <v>323</v>
       </c>
       <c r="B254" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C254" t="s">
         <v>418</v>
       </c>
       <c r="D254" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6452,13 +6460,13 @@
         <v>323</v>
       </c>
       <c r="B255" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C255" t="s">
         <v>418</v>
       </c>
       <c r="D255" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6466,13 +6474,13 @@
         <v>323</v>
       </c>
       <c r="B256" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C256" t="s">
         <v>418</v>
       </c>
       <c r="D256" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6480,13 +6488,13 @@
         <v>323</v>
       </c>
       <c r="B257" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C257" t="s">
         <v>418</v>
       </c>
       <c r="D257" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6494,13 +6502,13 @@
         <v>323</v>
       </c>
       <c r="B258" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C258" t="s">
         <v>418</v>
       </c>
       <c r="D258" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6508,13 +6516,13 @@
         <v>323</v>
       </c>
       <c r="B259" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C259" t="s">
         <v>418</v>
       </c>
       <c r="D259" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6522,13 +6530,13 @@
         <v>323</v>
       </c>
       <c r="B260" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C260" t="s">
         <v>418</v>
       </c>
       <c r="D260" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6536,27 +6544,27 @@
         <v>323</v>
       </c>
       <c r="B261" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C261" t="s">
         <v>418</v>
       </c>
       <c r="D261" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B262" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C262" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D262" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6564,13 +6572,13 @@
         <v>324</v>
       </c>
       <c r="B263" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C263" t="s">
         <v>442</v>
       </c>
       <c r="D263" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6578,13 +6586,13 @@
         <v>324</v>
       </c>
       <c r="B264" t="s">
-        <v>597</v>
+        <v>326</v>
       </c>
       <c r="C264" t="s">
         <v>442</v>
       </c>
       <c r="D264" t="s">
-        <v>598</v>
+        <v>443</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6592,13 +6600,13 @@
         <v>324</v>
       </c>
       <c r="B265" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C265" t="s">
         <v>442</v>
       </c>
       <c r="D265" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6606,13 +6614,13 @@
         <v>324</v>
       </c>
       <c r="B266" t="s">
-        <v>327</v>
+        <v>599</v>
       </c>
       <c r="C266" t="s">
         <v>442</v>
       </c>
       <c r="D266" t="s">
-        <v>444</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6620,13 +6628,13 @@
         <v>324</v>
       </c>
       <c r="B267" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C267" t="s">
         <v>442</v>
       </c>
       <c r="D267" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6634,13 +6642,13 @@
         <v>324</v>
       </c>
       <c r="B268" t="s">
-        <v>618</v>
+        <v>328</v>
       </c>
       <c r="C268" t="s">
         <v>442</v>
       </c>
       <c r="D268" t="s">
-        <v>619</v>
+        <v>445</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6648,13 +6656,13 @@
         <v>324</v>
       </c>
       <c r="B269" t="s">
-        <v>329</v>
+        <v>618</v>
       </c>
       <c r="C269" t="s">
         <v>442</v>
       </c>
       <c r="D269" t="s">
-        <v>446</v>
+        <v>619</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6662,13 +6670,13 @@
         <v>324</v>
       </c>
       <c r="B270" t="s">
-        <v>601</v>
+        <v>329</v>
       </c>
       <c r="C270" t="s">
         <v>442</v>
       </c>
       <c r="D270" t="s">
-        <v>602</v>
+        <v>446</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6676,13 +6684,13 @@
         <v>324</v>
       </c>
       <c r="B271" t="s">
-        <v>330</v>
+        <v>601</v>
       </c>
       <c r="C271" t="s">
         <v>442</v>
       </c>
       <c r="D271" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6690,13 +6698,13 @@
         <v>324</v>
       </c>
       <c r="B272" t="s">
-        <v>616</v>
+        <v>330</v>
       </c>
       <c r="C272" t="s">
         <v>442</v>
       </c>
       <c r="D272" t="s">
-        <v>617</v>
+        <v>447</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6704,13 +6712,13 @@
         <v>324</v>
       </c>
       <c r="B273" t="s">
-        <v>331</v>
+        <v>616</v>
       </c>
       <c r="C273" t="s">
         <v>442</v>
       </c>
       <c r="D273" t="s">
-        <v>448</v>
+        <v>617</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6718,13 +6726,13 @@
         <v>324</v>
       </c>
       <c r="B274" t="s">
-        <v>614</v>
+        <v>331</v>
       </c>
       <c r="C274" t="s">
         <v>442</v>
       </c>
       <c r="D274" t="s">
-        <v>615</v>
+        <v>448</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6732,13 +6740,13 @@
         <v>324</v>
       </c>
       <c r="B275" t="s">
-        <v>332</v>
+        <v>614</v>
       </c>
       <c r="C275" t="s">
         <v>442</v>
       </c>
       <c r="D275" t="s">
-        <v>449</v>
+        <v>615</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6746,13 +6754,13 @@
         <v>324</v>
       </c>
       <c r="B276" t="s">
-        <v>603</v>
+        <v>332</v>
       </c>
       <c r="C276" t="s">
         <v>442</v>
       </c>
       <c r="D276" t="s">
-        <v>604</v>
+        <v>449</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6760,13 +6768,13 @@
         <v>324</v>
       </c>
       <c r="B277" t="s">
-        <v>333</v>
+        <v>603</v>
       </c>
       <c r="C277" t="s">
         <v>442</v>
       </c>
       <c r="D277" t="s">
-        <v>450</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6774,13 +6782,13 @@
         <v>324</v>
       </c>
       <c r="B278" t="s">
-        <v>605</v>
+        <v>333</v>
       </c>
       <c r="C278" t="s">
         <v>442</v>
       </c>
       <c r="D278" t="s">
-        <v>606</v>
+        <v>450</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6788,13 +6796,13 @@
         <v>324</v>
       </c>
       <c r="B279" t="s">
-        <v>334</v>
+        <v>605</v>
       </c>
       <c r="C279" t="s">
         <v>442</v>
       </c>
       <c r="D279" t="s">
-        <v>451</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6802,13 +6810,13 @@
         <v>324</v>
       </c>
       <c r="B280" t="s">
-        <v>607</v>
+        <v>334</v>
       </c>
       <c r="C280" t="s">
         <v>442</v>
       </c>
       <c r="D280" t="s">
-        <v>608</v>
+        <v>451</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6816,13 +6824,13 @@
         <v>324</v>
       </c>
       <c r="B281" t="s">
-        <v>335</v>
+        <v>607</v>
       </c>
       <c r="C281" t="s">
         <v>442</v>
       </c>
       <c r="D281" t="s">
-        <v>452</v>
+        <v>608</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6830,13 +6838,13 @@
         <v>324</v>
       </c>
       <c r="B282" t="s">
-        <v>609</v>
+        <v>335</v>
       </c>
       <c r="C282" t="s">
         <v>442</v>
       </c>
       <c r="D282" t="s">
-        <v>610</v>
+        <v>452</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6844,13 +6852,13 @@
         <v>324</v>
       </c>
       <c r="B283" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C283" t="s">
         <v>442</v>
       </c>
       <c r="D283" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6858,13 +6866,13 @@
         <v>324</v>
       </c>
       <c r="B284" t="s">
-        <v>336</v>
+        <v>611</v>
       </c>
       <c r="C284" t="s">
         <v>442</v>
       </c>
       <c r="D284" t="s">
-        <v>453</v>
+        <v>612</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6872,13 +6880,13 @@
         <v>324</v>
       </c>
       <c r="B285" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C285" t="s">
         <v>442</v>
       </c>
       <c r="D285" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6886,13 +6894,13 @@
         <v>324</v>
       </c>
       <c r="B286" t="s">
-        <v>620</v>
+        <v>337</v>
       </c>
       <c r="C286" t="s">
         <v>442</v>
       </c>
       <c r="D286" t="s">
-        <v>621</v>
+        <v>454</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6900,13 +6908,13 @@
         <v>324</v>
       </c>
       <c r="B287" t="s">
-        <v>338</v>
+        <v>620</v>
       </c>
       <c r="C287" t="s">
         <v>442</v>
       </c>
       <c r="D287" t="s">
-        <v>455</v>
+        <v>621</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6914,13 +6922,13 @@
         <v>324</v>
       </c>
       <c r="B288" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C288" t="s">
         <v>442</v>
       </c>
       <c r="D288" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6928,13 +6936,13 @@
         <v>324</v>
       </c>
       <c r="B289" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C289" t="s">
         <v>442</v>
       </c>
       <c r="D289" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6942,13 +6950,13 @@
         <v>324</v>
       </c>
       <c r="B290" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C290" t="s">
         <v>442</v>
       </c>
       <c r="D290" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6956,13 +6964,13 @@
         <v>324</v>
       </c>
       <c r="B291" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C291" t="s">
         <v>442</v>
       </c>
       <c r="D291" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6970,13 +6978,13 @@
         <v>324</v>
       </c>
       <c r="B292" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C292" t="s">
         <v>442</v>
       </c>
       <c r="D292" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6984,13 +6992,13 @@
         <v>324</v>
       </c>
       <c r="B293" t="s">
-        <v>461</v>
+        <v>343</v>
       </c>
       <c r="C293" t="s">
         <v>442</v>
       </c>
       <c r="D293" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6998,13 +7006,13 @@
         <v>324</v>
       </c>
       <c r="B294" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="C294" t="s">
         <v>442</v>
       </c>
       <c r="D294" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7012,13 +7020,13 @@
         <v>324</v>
       </c>
       <c r="B295" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C295" t="s">
         <v>442</v>
       </c>
       <c r="D295" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7026,13 +7034,13 @@
         <v>324</v>
       </c>
       <c r="B296" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C296" t="s">
         <v>442</v>
       </c>
       <c r="D296" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7040,13 +7048,13 @@
         <v>324</v>
       </c>
       <c r="B297" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C297" t="s">
         <v>442</v>
       </c>
       <c r="D297" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7054,27 +7062,27 @@
         <v>324</v>
       </c>
       <c r="B298" t="s">
-        <v>613</v>
+        <v>347</v>
       </c>
       <c r="C298" t="s">
         <v>442</v>
       </c>
-      <c r="D298" s="2" t="s">
-        <v>92</v>
+      <c r="D298" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B299" t="s">
-        <v>349</v>
+        <v>613</v>
       </c>
       <c r="C299" t="s">
-        <v>468</v>
-      </c>
-      <c r="D299" t="s">
-        <v>467</v>
+        <v>442</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7082,13 +7090,13 @@
         <v>348</v>
       </c>
       <c r="B300" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C300" t="s">
         <v>468</v>
       </c>
       <c r="D300" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7096,13 +7104,13 @@
         <v>348</v>
       </c>
       <c r="B301" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C301" t="s">
         <v>468</v>
       </c>
       <c r="D301" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7110,13 +7118,13 @@
         <v>348</v>
       </c>
       <c r="B302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C302" t="s">
         <v>468</v>
       </c>
       <c r="D302" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7124,13 +7132,13 @@
         <v>348</v>
       </c>
       <c r="B303" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C303" t="s">
         <v>468</v>
       </c>
       <c r="D303" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7138,13 +7146,13 @@
         <v>348</v>
       </c>
       <c r="B304" t="s">
-        <v>508</v>
+        <v>353</v>
       </c>
       <c r="C304" t="s">
         <v>468</v>
       </c>
       <c r="D304" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7152,13 +7160,13 @@
         <v>348</v>
       </c>
       <c r="B305" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C305" t="s">
         <v>468</v>
       </c>
       <c r="D305" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7166,13 +7174,13 @@
         <v>348</v>
       </c>
       <c r="B306" t="s">
-        <v>628</v>
+        <v>511</v>
       </c>
       <c r="C306" t="s">
         <v>468</v>
       </c>
       <c r="D306" t="s">
-        <v>629</v>
+        <v>513</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7180,13 +7188,13 @@
         <v>348</v>
       </c>
       <c r="B307" t="s">
-        <v>538</v>
+        <v>628</v>
       </c>
       <c r="C307" t="s">
         <v>468</v>
       </c>
       <c r="D307" t="s">
-        <v>541</v>
+        <v>629</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7194,13 +7202,13 @@
         <v>348</v>
       </c>
       <c r="B308" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C308" t="s">
         <v>468</v>
       </c>
       <c r="D308" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7208,13 +7216,13 @@
         <v>348</v>
       </c>
       <c r="B309" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C309" t="s">
         <v>468</v>
       </c>
       <c r="D309" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7222,13 +7230,13 @@
         <v>348</v>
       </c>
       <c r="B310" t="s">
-        <v>354</v>
+        <v>512</v>
       </c>
       <c r="C310" t="s">
         <v>468</v>
       </c>
       <c r="D310" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7236,13 +7244,13 @@
         <v>348</v>
       </c>
       <c r="B311" t="s">
-        <v>640</v>
+        <v>354</v>
       </c>
       <c r="C311" t="s">
         <v>468</v>
       </c>
       <c r="D311" t="s">
-        <v>641</v>
+        <v>473</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7250,13 +7258,13 @@
         <v>348</v>
       </c>
       <c r="B312" t="s">
-        <v>355</v>
+        <v>640</v>
       </c>
       <c r="C312" t="s">
         <v>468</v>
       </c>
       <c r="D312" t="s">
-        <v>474</v>
+        <v>641</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7264,13 +7272,13 @@
         <v>348</v>
       </c>
       <c r="B313" t="s">
-        <v>630</v>
+        <v>355</v>
       </c>
       <c r="C313" t="s">
         <v>468</v>
       </c>
       <c r="D313" t="s">
-        <v>633</v>
+        <v>474</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7278,13 +7286,13 @@
         <v>348</v>
       </c>
       <c r="B314" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C314" t="s">
         <v>468</v>
       </c>
       <c r="D314" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7292,13 +7300,13 @@
         <v>348</v>
       </c>
       <c r="B315" t="s">
-        <v>510</v>
+        <v>631</v>
       </c>
       <c r="C315" t="s">
         <v>468</v>
       </c>
       <c r="D315" t="s">
-        <v>240</v>
+        <v>632</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7306,13 +7314,13 @@
         <v>348</v>
       </c>
       <c r="B316" t="s">
-        <v>356</v>
+        <v>510</v>
       </c>
       <c r="C316" t="s">
         <v>468</v>
       </c>
       <c r="D316" t="s">
-        <v>475</v>
+        <v>240</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7320,13 +7328,13 @@
         <v>348</v>
       </c>
       <c r="B317" t="s">
-        <v>634</v>
+        <v>356</v>
       </c>
       <c r="C317" t="s">
         <v>468</v>
       </c>
       <c r="D317" t="s">
-        <v>635</v>
+        <v>475</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7334,13 +7342,13 @@
         <v>348</v>
       </c>
       <c r="B318" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C318" t="s">
         <v>468</v>
       </c>
       <c r="D318" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7348,13 +7356,13 @@
         <v>348</v>
       </c>
       <c r="B319" t="s">
-        <v>357</v>
+        <v>636</v>
       </c>
       <c r="C319" t="s">
         <v>468</v>
       </c>
       <c r="D319" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7362,13 +7370,13 @@
         <v>348</v>
       </c>
       <c r="B320" t="s">
-        <v>638</v>
+        <v>357</v>
       </c>
       <c r="C320" t="s">
         <v>468</v>
       </c>
       <c r="D320" t="s">
-        <v>639</v>
+        <v>476</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7376,13 +7384,13 @@
         <v>348</v>
       </c>
       <c r="B321" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="C321" t="s">
         <v>468</v>
       </c>
       <c r="D321" t="s">
-        <v>477</v>
+        <v>639</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7390,13 +7398,13 @@
         <v>348</v>
       </c>
       <c r="B322" t="s">
-        <v>642</v>
+        <v>358</v>
       </c>
       <c r="C322" t="s">
         <v>468</v>
       </c>
       <c r="D322" t="s">
-        <v>643</v>
+        <v>477</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7404,13 +7412,13 @@
         <v>348</v>
       </c>
       <c r="B323" t="s">
-        <v>359</v>
+        <v>642</v>
       </c>
       <c r="C323" t="s">
         <v>468</v>
       </c>
       <c r="D323" t="s">
-        <v>478</v>
+        <v>643</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7418,13 +7426,13 @@
         <v>348</v>
       </c>
       <c r="B324" t="s">
-        <v>648</v>
+        <v>359</v>
       </c>
       <c r="C324" t="s">
         <v>468</v>
       </c>
       <c r="D324" t="s">
-        <v>649</v>
+        <v>478</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7432,13 +7440,13 @@
         <v>348</v>
       </c>
       <c r="B325" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C325" t="s">
         <v>468</v>
       </c>
       <c r="D325" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7446,13 +7454,13 @@
         <v>348</v>
       </c>
       <c r="B326" t="s">
-        <v>360</v>
+        <v>651</v>
       </c>
       <c r="C326" t="s">
         <v>468</v>
       </c>
       <c r="D326" t="s">
-        <v>479</v>
+        <v>650</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7460,13 +7468,13 @@
         <v>348</v>
       </c>
       <c r="B327" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C327" t="s">
         <v>468</v>
       </c>
       <c r="D327" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7474,13 +7482,13 @@
         <v>348</v>
       </c>
       <c r="B328" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C328" t="s">
         <v>468</v>
       </c>
       <c r="D328" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7488,13 +7496,13 @@
         <v>348</v>
       </c>
       <c r="B329" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C329" t="s">
         <v>468</v>
       </c>
       <c r="D329" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7502,13 +7510,13 @@
         <v>348</v>
       </c>
       <c r="B330" t="s">
-        <v>644</v>
+        <v>363</v>
       </c>
       <c r="C330" t="s">
         <v>468</v>
       </c>
       <c r="D330" t="s">
-        <v>645</v>
+        <v>482</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7516,13 +7524,13 @@
         <v>348</v>
       </c>
       <c r="B331" t="s">
-        <v>364</v>
+        <v>644</v>
       </c>
       <c r="C331" t="s">
         <v>468</v>
       </c>
       <c r="D331" t="s">
-        <v>483</v>
+        <v>645</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7530,13 +7538,13 @@
         <v>348</v>
       </c>
       <c r="B332" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C332" t="s">
         <v>468</v>
       </c>
       <c r="D332" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7544,13 +7552,13 @@
         <v>348</v>
       </c>
       <c r="B333" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C333" t="s">
         <v>468</v>
       </c>
       <c r="D333" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7558,13 +7566,13 @@
         <v>348</v>
       </c>
       <c r="B334" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C334" t="s">
         <v>468</v>
       </c>
       <c r="D334" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7572,13 +7580,13 @@
         <v>348</v>
       </c>
       <c r="B335" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C335" t="s">
         <v>468</v>
       </c>
       <c r="D335" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7586,13 +7594,13 @@
         <v>348</v>
       </c>
       <c r="B336" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C336" t="s">
         <v>468</v>
       </c>
       <c r="D336" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7600,13 +7608,13 @@
         <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>622</v>
+        <v>369</v>
       </c>
       <c r="C337" t="s">
         <v>468</v>
       </c>
       <c r="D337" t="s">
-        <v>625</v>
+        <v>488</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7614,13 +7622,13 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C338" t="s">
         <v>468</v>
       </c>
       <c r="D338" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7628,13 +7636,13 @@
         <v>348</v>
       </c>
       <c r="B339" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C339" t="s">
         <v>468</v>
       </c>
       <c r="D339" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7642,27 +7650,27 @@
         <v>348</v>
       </c>
       <c r="B340" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="C340" t="s">
         <v>468</v>
       </c>
       <c r="D340" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B341" t="s">
-        <v>371</v>
+        <v>646</v>
       </c>
       <c r="C341" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="D341" t="s">
-        <v>490</v>
+        <v>647</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7670,13 +7678,13 @@
         <v>370</v>
       </c>
       <c r="B342" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C342" t="s">
         <v>489</v>
       </c>
       <c r="D342" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7684,13 +7692,13 @@
         <v>370</v>
       </c>
       <c r="B343" t="s">
-        <v>523</v>
+        <v>372</v>
       </c>
       <c r="C343" t="s">
         <v>489</v>
       </c>
       <c r="D343" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7698,12 +7706,26 @@
         <v>370</v>
       </c>
       <c r="B344" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C344" t="s">
         <v>489</v>
       </c>
       <c r="D344" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>370</v>
+      </c>
+      <c r="B345" t="s">
+        <v>524</v>
+      </c>
+      <c r="C345" t="s">
+        <v>489</v>
+      </c>
+      <c r="D345" t="s">
         <v>526</v>
       </c>
     </row>
